--- a/input/multiassets_ret.xlsx
+++ b/input/multiassets_ret.xlsx
@@ -13,12 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Dates</t>
   </si>
   <si>
-    <t xml:space="preserve">World Momentum</t>
+    <t xml:space="preserve">MSCI World</t>
   </si>
   <si>
     <t xml:space="preserve">US Quality</t>
@@ -33,7 +33,10 @@
     <t xml:space="preserve">EU Corp Large Cap bonds</t>
   </si>
   <si>
-    <t xml:space="preserve">US TIPS 0-5y</t>
+    <t xml:space="preserve">EU Inflation-Linked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU Overnight</t>
   </si>
   <si>
     <t xml:space="preserve">US Short Treasury</t>
@@ -405,34 +408,40 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45643</v>
+        <v>45645</v>
       </c>
       <c r="B2" t="n">
-        <v>82.0650024414062</v>
+        <v>107.970001220703</v>
       </c>
       <c r="C2" t="n">
-        <v>14.5179996490479</v>
+        <v>14.3660001754761</v>
       </c>
       <c r="D2" t="n">
-        <v>67.3949966430664</v>
+        <v>66.1600036621094</v>
       </c>
       <c r="E2" t="n">
-        <v>190.360000610352</v>
+        <v>189.320007324219</v>
       </c>
       <c r="F2" t="n">
-        <v>125.790000915527</v>
+        <v>125.169998168945</v>
       </c>
       <c r="G2" t="n">
-        <v>4.93349981307983</v>
+        <v>229.199996948242</v>
       </c>
       <c r="H2" t="n">
-        <v>4.99599981307983</v>
+        <v>110.268997192383</v>
       </c>
       <c r="I2" t="n">
-        <v>242.229995727539</v>
+        <v>4.99949979782104</v>
+      </c>
+      <c r="J2" t="n">
+        <v>240.899993896484</v>
       </c>
     </row>
     <row r="3">
@@ -440,7 +449,7 @@
         <v>45625</v>
       </c>
       <c r="B3" t="n">
-        <v>82.3050003051758</v>
+        <v>110.580001831055</v>
       </c>
       <c r="C3" t="n">
         <v>14.5939998626709</v>
@@ -455,12 +464,15 @@
         <v>126.959999084473</v>
       </c>
       <c r="G3" t="n">
-        <v>4.93575000762939</v>
+        <v>231.990005493164</v>
       </c>
       <c r="H3" t="n">
+        <v>110.042999267578</v>
+      </c>
+      <c r="I3" t="n">
         <v>4.98449993133545</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>243.029998779297</v>
       </c>
     </row>
@@ -469,7 +481,7 @@
         <v>45596</v>
       </c>
       <c r="B4" t="n">
-        <v>79.1699981689453</v>
+        <v>105.910003662109</v>
       </c>
       <c r="C4" t="n">
         <v>13.5579996109009</v>
@@ -484,12 +496,15 @@
         <v>124.680000305176</v>
       </c>
       <c r="G4" t="n">
-        <v>4.92215013504028</v>
+        <v>227.929992675781</v>
       </c>
       <c r="H4" t="n">
+        <v>109.791999816895</v>
+      </c>
+      <c r="I4" t="n">
         <v>4.96549987792969</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>243.529998779297</v>
       </c>
     </row>
@@ -498,7 +513,7 @@
         <v>45565</v>
       </c>
       <c r="B5" t="n">
-        <v>79.5299987792969</v>
+        <v>107.419998168945</v>
       </c>
       <c r="C5" t="n">
         <v>13.3140001296997</v>
@@ -513,12 +528,15 @@
         <v>125.25</v>
       </c>
       <c r="G5" t="n">
-        <v>4.94441747665405</v>
+        <v>229.889999389648</v>
       </c>
       <c r="H5" t="n">
+        <v>109.491996765137</v>
+      </c>
+      <c r="I5" t="n">
         <v>4.94799995422363</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>227.860000610352</v>
       </c>
     </row>
@@ -527,7 +545,7 @@
         <v>45534</v>
       </c>
       <c r="B6" t="n">
-        <v>77.8499984741211</v>
+        <v>105.169998168945</v>
       </c>
       <c r="C6" t="n">
         <v>13.2040004730225</v>
@@ -542,12 +560,15 @@
         <v>123.702590942383</v>
       </c>
       <c r="G6" t="n">
-        <v>4.88535976409912</v>
+        <v>226.679992675781</v>
       </c>
       <c r="H6" t="n">
+        <v>109.176002502441</v>
+      </c>
+      <c r="I6" t="n">
         <v>4.92696952819824</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>218.330001831055</v>
       </c>
     </row>
@@ -556,7 +577,7 @@
         <v>45504</v>
       </c>
       <c r="B7" t="n">
-        <v>76.5800018310547</v>
+        <v>103.290000915527</v>
       </c>
       <c r="C7" t="n">
         <v>13.1400003433228</v>
@@ -571,12 +592,15 @@
         <v>123.46427154541</v>
       </c>
       <c r="G7" t="n">
-        <v>4.85437822341919</v>
+        <v>227.740005493164</v>
       </c>
       <c r="H7" t="n">
+        <v>108.835998535156</v>
+      </c>
+      <c r="I7" t="n">
         <v>4.90203762054443</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>215.830001831055</v>
       </c>
     </row>
@@ -585,7 +609,7 @@
         <v>45471</v>
       </c>
       <c r="B8" t="n">
-        <v>78.2399978637695</v>
+        <v>102.029998779297</v>
       </c>
       <c r="C8" t="n">
         <v>13.28600025177</v>
@@ -600,12 +624,15 @@
         <v>121.42854309082</v>
       </c>
       <c r="G8" t="n">
-        <v>4.82678556442261</v>
+        <v>223.679992675781</v>
       </c>
       <c r="H8" t="n">
+        <v>108.512001037598</v>
+      </c>
+      <c r="I8" t="n">
         <v>4.87710523605347</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>209.600006103516</v>
       </c>
     </row>
@@ -614,7 +641,7 @@
         <v>45443</v>
       </c>
       <c r="B9" t="n">
-        <v>74.1999969482422</v>
+        <v>98.3600006103516</v>
       </c>
       <c r="C9" t="n">
         <v>12.4739999771118</v>
@@ -629,12 +656,15 @@
         <v>120.438995361328</v>
       </c>
       <c r="G9" t="n">
-        <v>4.79193162918091</v>
+        <v>225.190002441406</v>
       </c>
       <c r="H9" t="n">
+        <v>108.208999633789</v>
+      </c>
+      <c r="I9" t="n">
         <v>4.85888576507568</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>207.309997558594</v>
       </c>
     </row>
@@ -643,7 +673,7 @@
         <v>45412</v>
       </c>
       <c r="B10" t="n">
-        <v>71.4400024414062</v>
+        <v>95.75</v>
       </c>
       <c r="C10" t="n">
         <v>12.253999710083</v>
@@ -658,12 +688,15 @@
         <v>120.340393066406</v>
       </c>
       <c r="G10" t="n">
-        <v>4.74873399734497</v>
+        <v>226.089996337891</v>
       </c>
       <c r="H10" t="n">
+        <v>107.849998474121</v>
+      </c>
+      <c r="I10" t="n">
         <v>4.83587169647217</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>207.429992675781</v>
       </c>
     </row>
@@ -672,7 +705,7 @@
         <v>45379</v>
       </c>
       <c r="B11" t="n">
-        <v>74.0400009155273</v>
+        <v>98.7600021362305</v>
       </c>
       <c r="C11" t="n">
         <v>12.5640001296997</v>
@@ -687,12 +720,15 @@
         <v>121.632141113281</v>
       </c>
       <c r="G11" t="n">
-        <v>4.7543363571167</v>
+        <v>227.330001831055</v>
       </c>
       <c r="H11" t="n">
+        <v>107.52799987793</v>
+      </c>
+      <c r="I11" t="n">
         <v>4.81477499008179</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>198.179992675781</v>
       </c>
     </row>
@@ -701,7 +737,7 @@
         <v>45351</v>
       </c>
       <c r="B12" t="n">
-        <v>70.5</v>
+        <v>95.3000030517578</v>
       </c>
       <c r="C12" t="n">
         <v>12.2080001831055</v>
@@ -716,12 +752,15 @@
         <v>120.031578063965</v>
       </c>
       <c r="G12" t="n">
-        <v>4.72632503509521</v>
+        <v>225.309997558594</v>
       </c>
       <c r="H12" t="n">
+        <v>107.134002685547</v>
+      </c>
+      <c r="I12" t="n">
         <v>4.79652166366577</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>182.529998779297</v>
       </c>
     </row>
@@ -730,7 +769,7 @@
         <v>45322</v>
       </c>
       <c r="B13" t="n">
-        <v>65.0400009155273</v>
+        <v>92.2200012207031</v>
       </c>
       <c r="C13" t="n">
         <v>11.539999961853</v>
@@ -745,12 +784,15 @@
         <v>121.10913848877</v>
       </c>
       <c r="G13" t="n">
-        <v>4.73472881317139</v>
+        <v>226.470001220703</v>
       </c>
       <c r="H13" t="n">
+        <v>106.809997558594</v>
+      </c>
+      <c r="I13" t="n">
         <v>4.77689456939697</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -759,7 +801,7 @@
         <v>45289</v>
       </c>
       <c r="B14" t="n">
-        <v>61.7799987792969</v>
+        <v>90.9499969482422</v>
       </c>
       <c r="C14" t="n">
         <v>11.0260000228882</v>
@@ -774,12 +816,15 @@
         <v>121.481407165527</v>
       </c>
       <c r="G14" t="n">
-        <v>4.70391750335693</v>
+        <v>228.119995117188</v>
       </c>
       <c r="H14" t="n">
-        <v>4.75820207595825</v>
+        <v>106.452003479004</v>
       </c>
       <c r="I14" t="n">
+        <v>4.75820159912109</v>
+      </c>
+      <c r="J14" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -788,7 +833,7 @@
         <v>45260</v>
       </c>
       <c r="B15" t="n">
-        <v>58.7999992370605</v>
+        <v>86.0899963378906</v>
       </c>
       <c r="C15" t="n">
         <v>10.5900001525879</v>
@@ -803,12 +848,15 @@
         <v>118.229690551758</v>
       </c>
       <c r="G15" t="n">
-        <v>4.6623682975769</v>
+        <v>222.729995727539</v>
       </c>
       <c r="H15" t="n">
-        <v>4.7357702255249</v>
+        <v>106.108001708984</v>
       </c>
       <c r="I15" t="n">
+        <v>4.73577070236206</v>
+      </c>
+      <c r="J15" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -817,7 +865,7 @@
         <v>45230</v>
       </c>
       <c r="B16" t="n">
-        <v>53.939998626709</v>
+        <v>78.8499984741211</v>
       </c>
       <c r="C16" t="n">
         <v>10.076000213623</v>
@@ -832,12 +880,15 @@
         <v>115.338912963867</v>
       </c>
       <c r="G16" t="n">
-        <v>4.61515617370605</v>
+        <v>216.910003662109</v>
       </c>
       <c r="H16" t="n">
+        <v>105.75</v>
+      </c>
+      <c r="I16" t="n">
         <v>4.71053552627563</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -846,7 +897,7 @@
         <v>45198</v>
       </c>
       <c r="B17" t="n">
-        <v>55.1800003051758</v>
+        <v>81.7300033569336</v>
       </c>
       <c r="C17" t="n">
         <v>10.3140001296997</v>
@@ -858,15 +909,18 @@
         <v>172.332763671875</v>
       </c>
       <c r="F17" t="n">
-        <v>114.696517944336</v>
+        <v>114.696510314941</v>
       </c>
       <c r="G17" t="n">
-        <v>4.59901714324951</v>
+        <v>216.559997558594</v>
       </c>
       <c r="H17" t="n">
-        <v>4.68950653076172</v>
+        <v>105.448997497559</v>
       </c>
       <c r="I17" t="n">
+        <v>4.68950605392456</v>
+      </c>
+      <c r="J17" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -875,7 +929,7 @@
         <v>45169</v>
       </c>
       <c r="B18" t="n">
-        <v>57.4749984741211</v>
+        <v>85.1600036621094</v>
       </c>
       <c r="C18" t="n">
         <v>10.5699996948242</v>
@@ -887,15 +941,18 @@
         <v>177.8583984375</v>
       </c>
       <c r="F18" t="n">
-        <v>115.861961364746</v>
+        <v>115.861968994141</v>
       </c>
       <c r="G18" t="n">
-        <v>4.60036277770996</v>
+        <v>224.259994506836</v>
       </c>
       <c r="H18" t="n">
+        <v>105.107002258301</v>
+      </c>
+      <c r="I18" t="n">
         <v>4.67031574249268</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -904,7 +961,7 @@
         <v>45138</v>
       </c>
       <c r="B19" t="n">
-        <v>58.1100006103516</v>
+        <v>87.1100006103516</v>
       </c>
       <c r="C19" t="n">
         <v>10.4079999923706</v>
@@ -916,15 +973,18 @@
         <v>177.060775756836</v>
       </c>
       <c r="F19" t="n">
-        <v>115.939323425293</v>
+        <v>115.939315795898</v>
       </c>
       <c r="G19" t="n">
-        <v>4.59543180465698</v>
+        <v>224.850006103516</v>
       </c>
       <c r="H19" t="n">
+        <v>104.769996643066</v>
+      </c>
+      <c r="I19" t="n">
         <v>4.64933204650879</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -933,7 +993,7 @@
         <v>45107</v>
       </c>
       <c r="B20" t="n">
-        <v>56.7400016784668</v>
+        <v>84.2600021362305</v>
       </c>
       <c r="C20" t="n">
         <v>10.1180000305176</v>
@@ -945,15 +1005,18 @@
         <v>177.473999023438</v>
       </c>
       <c r="F20" t="n">
-        <v>114.943351745605</v>
+        <v>114.943336486816</v>
       </c>
       <c r="G20" t="n">
-        <v>4.57436227798462</v>
+        <v>223.690002441406</v>
       </c>
       <c r="H20" t="n">
+        <v>104.50700378418</v>
+      </c>
+      <c r="I20" t="n">
         <v>4.62834787368774</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -962,7 +1025,7 @@
         <v>45077</v>
       </c>
       <c r="B21" t="n">
-        <v>53.2700004577637</v>
+        <v>79.25</v>
       </c>
       <c r="C21" t="n">
         <v>9.72799968719482</v>
@@ -974,15 +1037,18 @@
         <v>178.290832519531</v>
       </c>
       <c r="F21" t="n">
-        <v>115.342918395996</v>
+        <v>115.342903137207</v>
       </c>
       <c r="G21" t="n">
-        <v>4.585120677948</v>
+        <v>224.630004882812</v>
       </c>
       <c r="H21" t="n">
+        <v>104.200996398926</v>
+      </c>
+      <c r="I21" t="n">
         <v>4.61010074615479</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -991,7 +1057,7 @@
         <v>45044</v>
       </c>
       <c r="B22" t="n">
-        <v>56.0349998474121</v>
+        <v>80.120002746582</v>
       </c>
       <c r="C22" t="n">
         <v>9.3100004196167</v>
@@ -1000,18 +1066,21 @@
         <v>58.1199989318848</v>
       </c>
       <c r="E22" t="n">
-        <v>177.097793579102</v>
+        <v>177.097808837891</v>
       </c>
       <c r="F22" t="n">
-        <v>115.179496765137</v>
+        <v>115.179504394531</v>
       </c>
       <c r="G22" t="n">
-        <v>4.61181640625</v>
+        <v>222.740005493164</v>
       </c>
       <c r="H22" t="n">
+        <v>103.944000244141</v>
+      </c>
+      <c r="I22" t="n">
         <v>4.59550333023071</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1020,7 +1089,7 @@
         <v>45016</v>
       </c>
       <c r="B23" t="n">
-        <v>54.5</v>
+        <v>78.629997253418</v>
       </c>
       <c r="C23" t="n">
         <v>9.28400039672852</v>
@@ -1029,18 +1098,21 @@
         <v>56.5400009155273</v>
       </c>
       <c r="E23" t="n">
-        <v>177.307479858398</v>
+        <v>177.307495117188</v>
       </c>
       <c r="F23" t="n">
         <v>114.708473205566</v>
       </c>
       <c r="G23" t="n">
-        <v>4.60383129119873</v>
+        <v>222.470001220703</v>
       </c>
       <c r="H23" t="n">
+        <v>103.710998535156</v>
+      </c>
+      <c r="I23" t="n">
         <v>4.58364295959473</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1049,7 +1121,7 @@
         <v>44985</v>
       </c>
       <c r="B24" t="n">
-        <v>54.1399993896484</v>
+        <v>76.6600036621094</v>
       </c>
       <c r="C24" t="n">
         <v>9.17899990081787</v>
@@ -1064,12 +1136,15 @@
         <v>112.84593963623</v>
       </c>
       <c r="G24" t="n">
-        <v>4.51599550247192</v>
+        <v>219.419998168945</v>
       </c>
       <c r="H24" t="n">
+        <v>103.47200012207</v>
+      </c>
+      <c r="I24" t="n">
         <v>4.55851793289185</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1078,7 +1153,7 @@
         <v>44957</v>
       </c>
       <c r="B25" t="n">
-        <v>55.6100006103516</v>
+        <v>77.9899978637695</v>
       </c>
       <c r="C25" t="n">
         <v>9.10900020599365</v>
@@ -1087,18 +1162,21 @@
         <v>56.2000007629395</v>
       </c>
       <c r="E25" t="n">
-        <v>176.449630737305</v>
+        <v>176.449645996094</v>
       </c>
       <c r="F25" t="n">
-        <v>114.940635681152</v>
+        <v>114.940643310547</v>
       </c>
       <c r="G25" t="n">
-        <v>4.52930402755737</v>
+        <v>219.820007324219</v>
       </c>
       <c r="H25" t="n">
-        <v>4.54325389862061</v>
+        <v>103.297996520996</v>
       </c>
       <c r="I25" t="n">
+        <v>4.54325437545776</v>
+      </c>
+      <c r="J25" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1107,7 +1185,7 @@
         <v>44925</v>
       </c>
       <c r="B26" t="n">
-        <v>55.1800003051758</v>
+        <v>73.1900024414062</v>
       </c>
       <c r="C26" t="n">
         <v>8.71199989318848</v>
@@ -1116,18 +1194,21 @@
         <v>55.5999984741211</v>
       </c>
       <c r="E26" t="n">
-        <v>171.073806762695</v>
+        <v>171.073791503906</v>
       </c>
       <c r="F26" t="n">
-        <v>112.932029724121</v>
+        <v>112.932022094727</v>
       </c>
       <c r="G26" t="n">
-        <v>4.51244688034058</v>
+        <v>215.889999389648</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5333776473999</v>
+        <v>103.151000976562</v>
       </c>
       <c r="I26" t="n">
+        <v>4.53337717056274</v>
+      </c>
+      <c r="J26" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1136,7 +1217,7 @@
         <v>44895</v>
       </c>
       <c r="B27" t="n">
-        <v>56.0400009155273</v>
+        <v>74.9400024414062</v>
       </c>
       <c r="C27" t="n">
         <v>9.2819995880127</v>
@@ -1145,18 +1226,21 @@
         <v>55.8199996948242</v>
       </c>
       <c r="E27" t="n">
-        <v>180.386199951172</v>
+        <v>180.386215209961</v>
       </c>
       <c r="F27" t="n">
-        <v>115.113182067871</v>
+        <v>115.113189697266</v>
       </c>
       <c r="G27" t="n">
-        <v>4.49115324020386</v>
+        <v>227.259994506836</v>
       </c>
       <c r="H27" t="n">
+        <v>103</v>
+      </c>
+      <c r="I27" t="n">
         <v>4.51182889938354</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1165,7 +1249,7 @@
         <v>44865</v>
       </c>
       <c r="B28" t="n">
-        <v>53.7000007629395</v>
+        <v>71.5299987792969</v>
       </c>
       <c r="C28" t="n">
         <v>9.27700042724609</v>
@@ -1174,18 +1258,21 @@
         <v>53.3600006103516</v>
       </c>
       <c r="E28" t="n">
-        <v>176.567489624023</v>
+        <v>176.567504882812</v>
       </c>
       <c r="F28" t="n">
-        <v>111.539436340332</v>
+        <v>111.539443969727</v>
       </c>
       <c r="G28" t="n">
-        <v>4.49557876586914</v>
+        <v>219.520004272461</v>
       </c>
       <c r="H28" t="n">
+        <v>102.910003662109</v>
+      </c>
+      <c r="I28" t="n">
         <v>4.4974627494812</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1194,7 +1281,7 @@
         <v>44834</v>
       </c>
       <c r="B29" t="n">
-        <v>49.4500007629395</v>
+        <v>67.879997253418</v>
       </c>
       <c r="C29" t="n">
         <v>8.81700038909912</v>
@@ -1206,15 +1293,18 @@
         <v>175.558441162109</v>
       </c>
       <c r="F29" t="n">
-        <v>111.672859191895</v>
+        <v>111.6728515625</v>
       </c>
       <c r="G29" t="n">
-        <v>4.45975208282471</v>
+        <v>212.690002441406</v>
       </c>
       <c r="H29" t="n">
+        <v>102.861999511719</v>
+      </c>
+      <c r="I29" t="n">
         <v>4.49252414703369</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1223,7 +1313,7 @@
         <v>44804</v>
       </c>
       <c r="B30" t="n">
-        <v>53.0800018310547</v>
+        <v>73.7600021362305</v>
       </c>
       <c r="C30" t="n">
         <v>9.39099979400635</v>
@@ -1238,12 +1328,15 @@
         <v>115.079444885254</v>
       </c>
       <c r="G30" t="n">
-        <v>4.59819316864014</v>
+        <v>226.160003662109</v>
       </c>
       <c r="H30" t="n">
-        <v>4.48767328262329</v>
+        <v>102.839996337891</v>
       </c>
       <c r="I30" t="n">
+        <v>4.48767375946045</v>
+      </c>
+      <c r="J30" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1252,7 +1345,7 @@
         <v>44771</v>
       </c>
       <c r="B31" t="n">
-        <v>53.9199981689453</v>
+        <v>76.2699966430664</v>
       </c>
       <c r="C31" t="n">
         <v>9.59700012207031</v>
@@ -1267,12 +1360,15 @@
         <v>121.647529602051</v>
       </c>
       <c r="G31" t="n">
-        <v>4.65215396881104</v>
+        <v>236.960006713867</v>
       </c>
       <c r="H31" t="n">
+        <v>102.866996765137</v>
+      </c>
+      <c r="I31" t="n">
         <v>4.48230981826782</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1281,7 +1377,7 @@
         <v>44742</v>
       </c>
       <c r="B32" t="n">
-        <v>51.7799987792969</v>
+        <v>71</v>
       </c>
       <c r="C32" t="n">
         <v>8.64999961853027</v>
@@ -1290,18 +1386,21 @@
         <v>53.8899993896484</v>
       </c>
       <c r="E32" t="n">
-        <v>186.686737060547</v>
+        <v>186.686721801758</v>
       </c>
       <c r="F32" t="n">
-        <v>115.193496704102</v>
+        <v>115.193504333496</v>
       </c>
       <c r="G32" t="n">
-        <v>4.57342433929443</v>
+        <v>224.509994506836</v>
       </c>
       <c r="H32" t="n">
-        <v>4.47918128967285</v>
+        <v>102.900001525879</v>
       </c>
       <c r="I32" t="n">
+        <v>4.47918081283569</v>
+      </c>
+      <c r="J32" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1310,7 +1409,7 @@
         <v>44712</v>
       </c>
       <c r="B33" t="n">
-        <v>56.0200004577637</v>
+        <v>77.7300033569336</v>
       </c>
       <c r="C33" t="n">
         <v>9.26399993896484</v>
@@ -1319,18 +1418,21 @@
         <v>56.2200012207031</v>
       </c>
       <c r="E33" t="n">
-        <v>190.247009277344</v>
+        <v>190.247024536133</v>
       </c>
       <c r="F33" t="n">
-        <v>119.299346923828</v>
+        <v>119.299354553223</v>
       </c>
       <c r="G33" t="n">
-        <v>4.64242315292358</v>
+        <v>231.740005493164</v>
       </c>
       <c r="H33" t="n">
-        <v>4.48365068435669</v>
+        <v>102.976997375488</v>
       </c>
       <c r="I33" t="n">
+        <v>4.48365116119385</v>
+      </c>
+      <c r="J33" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1339,7 +1441,7 @@
         <v>44680</v>
       </c>
       <c r="B34" t="n">
-        <v>57.4500007629395</v>
+        <v>79.1500015258789</v>
       </c>
       <c r="C34" t="n">
         <v>9.70699977874756</v>
@@ -1348,18 +1450,21 @@
         <v>57.5800018310547</v>
       </c>
       <c r="E34" t="n">
-        <v>193.312286376953</v>
+        <v>193.312301635742</v>
       </c>
       <c r="F34" t="n">
-        <v>120.428039550781</v>
+        <v>120.428047180176</v>
       </c>
       <c r="G34" t="n">
-        <v>4.63514804840088</v>
+        <v>240.740005493164</v>
       </c>
       <c r="H34" t="n">
+        <v>103.055999755859</v>
+      </c>
+      <c r="I34" t="n">
         <v>4.48007488250732</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1368,7 +1473,7 @@
         <v>44651</v>
       </c>
       <c r="B35" t="n">
-        <v>64.0899963378906</v>
+        <v>85.5800018310547</v>
       </c>
       <c r="C35" t="n">
         <v>9.93599987030029</v>
@@ -1377,18 +1482,21 @@
         <v>60.0400009155273</v>
       </c>
       <c r="E35" t="n">
-        <v>201.099212646484</v>
+        <v>201.099227905273</v>
       </c>
       <c r="F35" t="n">
-        <v>124.316795349121</v>
+        <v>124.316802978516</v>
       </c>
       <c r="G35" t="n">
-        <v>4.63780117034912</v>
+        <v>243.179992675781</v>
       </c>
       <c r="H35" t="n">
+        <v>103.087997436523</v>
+      </c>
+      <c r="I35" t="n">
         <v>4.48007488250732</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1397,7 +1505,7 @@
         <v>44620</v>
       </c>
       <c r="B36" t="n">
-        <v>60.7099990844727</v>
+        <v>82.6699981689453</v>
       </c>
       <c r="C36" t="n">
         <v>9.34500026702881</v>
@@ -1406,18 +1514,21 @@
         <v>57.2099990844727</v>
       </c>
       <c r="E36" t="n">
-        <v>207.286880493164</v>
+        <v>207.286865234375</v>
       </c>
       <c r="F36" t="n">
         <v>126.344856262207</v>
       </c>
       <c r="G36" t="n">
-        <v>4.65194940567017</v>
+        <v>238.139999389648</v>
       </c>
       <c r="H36" t="n">
+        <v>103.161003112793</v>
+      </c>
+      <c r="I36" t="n">
         <v>4.48186302185059</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1426,7 +1537,7 @@
         <v>44592</v>
       </c>
       <c r="B37" t="n">
-        <v>61.5499992370605</v>
+        <v>84</v>
       </c>
       <c r="C37" t="n">
         <v>9.61999988555908</v>
@@ -1441,12 +1552,15 @@
         <v>129.298934936523</v>
       </c>
       <c r="G37" t="n">
-        <v>4.61039018630981</v>
+        <v>237.919998168945</v>
       </c>
       <c r="H37" t="n">
+        <v>103.208999633789</v>
+      </c>
+      <c r="I37" t="n">
         <v>4.48275661468506</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1455,7 +1569,7 @@
         <v>44560</v>
       </c>
       <c r="B38" t="n">
-        <v>67.7200012207031</v>
+        <v>89.8399963378906</v>
       </c>
       <c r="C38" t="n">
         <v>10.4340000152588</v>
@@ -1464,18 +1578,21 @@
         <v>61.6500015258789</v>
       </c>
       <c r="E38" t="n">
-        <v>214.112350463867</v>
+        <v>214.112365722656</v>
       </c>
       <c r="F38" t="n">
-        <v>131.552383422852</v>
+        <v>131.55241394043</v>
       </c>
       <c r="G38" t="n">
-        <v>4.64045429229736</v>
+        <v>239.119995117188</v>
       </c>
       <c r="H38" t="n">
-        <v>4.48454523086548</v>
+        <v>103.278999328613</v>
       </c>
       <c r="I38" t="n">
+        <v>4.48454475402832</v>
+      </c>
+      <c r="J38" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1484,7 +1601,7 @@
         <v>44530</v>
       </c>
       <c r="B39" t="n">
-        <v>66.4400024414062</v>
+        <v>85.8899993896484</v>
       </c>
       <c r="C39" t="n">
         <v>10.1099996566772</v>
@@ -1493,18 +1610,21 @@
         <v>58.5299987792969</v>
       </c>
       <c r="E39" t="n">
-        <v>217.339462280273</v>
+        <v>217.339477539062</v>
       </c>
       <c r="F39" t="n">
-        <v>131.587280273438</v>
+        <v>131.587310791016</v>
       </c>
       <c r="G39" t="n">
-        <v>4.62542200088501</v>
+        <v>238.740005493164</v>
       </c>
       <c r="H39" t="n">
-        <v>4.48543882369995</v>
+        <v>103.343002319336</v>
       </c>
       <c r="I39" t="n">
+        <v>4.48543834686279</v>
+      </c>
+      <c r="J39" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1513,7 +1633,7 @@
         <v>44498</v>
       </c>
       <c r="B40" t="n">
-        <v>68.4300003051758</v>
+        <v>87.5199966430664</v>
       </c>
       <c r="C40" t="n">
         <v>9.86200046539307</v>
@@ -1522,18 +1642,21 @@
         <v>59.4000015258789</v>
       </c>
       <c r="E40" t="n">
-        <v>213.065246582031</v>
+        <v>213.065231323242</v>
       </c>
       <c r="F40" t="n">
         <v>131.265899658203</v>
       </c>
       <c r="G40" t="n">
-        <v>4.60950517654419</v>
+        <v>235.520004272461</v>
       </c>
       <c r="H40" t="n">
-        <v>4.48543882369995</v>
+        <v>103.411003112793</v>
       </c>
       <c r="I40" t="n">
+        <v>4.48543834686279</v>
+      </c>
+      <c r="J40" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1542,7 +1665,7 @@
         <v>44469</v>
       </c>
       <c r="B41" t="n">
-        <v>64.0699996948242</v>
+        <v>83.370002746582</v>
       </c>
       <c r="C41" t="n">
         <v>9.24400043487549</v>
@@ -1554,15 +1677,18 @@
         <v>216.063858032227</v>
       </c>
       <c r="F41" t="n">
-        <v>132.211181640625</v>
+        <v>132.211196899414</v>
       </c>
       <c r="G41" t="n">
-        <v>4.58386325836182</v>
+        <v>235.320007324219</v>
       </c>
       <c r="H41" t="n">
-        <v>4.48543882369995</v>
+        <v>103.46199798584</v>
       </c>
       <c r="I41" t="n">
+        <v>4.48543834686279</v>
+      </c>
+      <c r="J41" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1571,7 +1697,7 @@
         <v>44439</v>
       </c>
       <c r="B42" t="n">
-        <v>66.2200012207031</v>
+        <v>86.6100006103516</v>
       </c>
       <c r="C42" t="n">
         <v>9.6230001449585</v>
@@ -1580,18 +1706,21 @@
         <v>60.3899993896484</v>
       </c>
       <c r="E42" t="n">
-        <v>218.929229736328</v>
+        <v>218.929244995117</v>
       </c>
       <c r="F42" t="n">
-        <v>133.140548706055</v>
+        <v>133.140594482422</v>
       </c>
       <c r="G42" t="n">
-        <v>4.59182119369507</v>
+        <v>234.5</v>
       </c>
       <c r="H42" t="n">
+        <v>103.517997741699</v>
+      </c>
+      <c r="I42" t="n">
         <v>4.48597478866577</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1600,7 +1729,7 @@
         <v>44407</v>
       </c>
       <c r="B43" t="n">
-        <v>64.120002746582</v>
+        <v>84.4599990844727</v>
       </c>
       <c r="C43" t="n">
         <v>9.29199981689453</v>
@@ -1609,18 +1738,21 @@
         <v>59.3600006103516</v>
       </c>
       <c r="E43" t="n">
-        <v>220.290512084961</v>
+        <v>220.290542602539</v>
       </c>
       <c r="F43" t="n">
         <v>133.829467773438</v>
       </c>
       <c r="G43" t="n">
-        <v>4.58474731445312</v>
+        <v>234.979995727539</v>
       </c>
       <c r="H43" t="n">
+        <v>103.58699798584</v>
+      </c>
+      <c r="I43" t="n">
         <v>4.48597478866577</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1629,7 +1761,7 @@
         <v>44377</v>
       </c>
       <c r="B44" t="n">
-        <v>63.0299987792969</v>
+        <v>82.8399963378906</v>
       </c>
       <c r="C44" t="n">
         <v>8.99499988555908</v>
@@ -1638,18 +1770,21 @@
         <v>57.6699981689453</v>
       </c>
       <c r="E44" t="n">
-        <v>216.387512207031</v>
+        <v>216.387542724609</v>
       </c>
       <c r="F44" t="n">
-        <v>132.253555297852</v>
+        <v>132.253524780273</v>
       </c>
       <c r="G44" t="n">
-        <v>4.52638816833496</v>
+        <v>228.839996337891</v>
       </c>
       <c r="H44" t="n">
+        <v>103.644996643066</v>
+      </c>
+      <c r="I44" t="n">
         <v>4.48597478866577</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>144.160003662109</v>
       </c>
     </row>
@@ -1658,7 +1793,7 @@
         <v>44344</v>
       </c>
       <c r="B45" t="n">
-        <v>62.435001373291</v>
+        <v>81.9599990844727</v>
       </c>
       <c r="C45" t="n">
         <v>8.48999977111816</v>
@@ -1670,15 +1805,18 @@
         <v>215.378448486328</v>
       </c>
       <c r="F45" t="n">
-        <v>131.61164855957</v>
+        <v>131.611618041992</v>
       </c>
       <c r="G45" t="n">
-        <v>4.52462005615234</v>
+        <v>228.009994506836</v>
       </c>
       <c r="H45" t="n">
+        <v>103.707000732422</v>
+      </c>
+      <c r="I45" t="n">
         <v>4.48597478866577</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>150.389999389648</v>
       </c>
     </row>
@@ -1687,7 +1825,7 @@
         <v>44316</v>
       </c>
       <c r="B46" t="n">
-        <v>63.2099990844727</v>
+        <v>80.5800018310547</v>
       </c>
       <c r="C46" t="n">
         <v>8.49499988555908</v>
@@ -1699,15 +1837,18 @@
         <v>215.454620361328</v>
       </c>
       <c r="F46" t="n">
-        <v>132.044937133789</v>
+        <v>132.044921875</v>
       </c>
       <c r="G46" t="n">
-        <v>4.49166584014893</v>
+        <v>226.660003662109</v>
       </c>
       <c r="H46" t="n">
+        <v>103.764999389648</v>
+      </c>
+      <c r="I46" t="n">
         <v>4.48642158508301</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>142.190002441406</v>
       </c>
     </row>
@@ -1716,7 +1857,7 @@
         <v>44286</v>
       </c>
       <c r="B47" t="n">
-        <v>59.1199989318848</v>
+        <v>77.0699996948242</v>
       </c>
       <c r="C47" t="n">
         <v>8.32199954986572</v>
@@ -1728,15 +1869,18 @@
         <v>217.625061035156</v>
       </c>
       <c r="F47" t="n">
-        <v>132.082565307617</v>
+        <v>132.082580566406</v>
       </c>
       <c r="G47" t="n">
-        <v>4.45202541351318</v>
+        <v>228.110000610352</v>
       </c>
       <c r="H47" t="n">
+        <v>103.815002441406</v>
+      </c>
+      <c r="I47" t="n">
         <v>4.48597478866577</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>140.600006103516</v>
       </c>
     </row>
@@ -1745,7 +1889,7 @@
         <v>44253</v>
       </c>
       <c r="B48" t="n">
-        <v>59.2299995422363</v>
+        <v>74.8300018310547</v>
       </c>
       <c r="C48" t="n">
         <v>7.7350001335144</v>
@@ -1757,15 +1901,18 @@
         <v>216.397048950195</v>
       </c>
       <c r="F48" t="n">
-        <v>131.650390625</v>
+        <v>131.650375366211</v>
       </c>
       <c r="G48" t="n">
-        <v>4.4154691696167</v>
+        <v>223.119995117188</v>
       </c>
       <c r="H48" t="n">
-        <v>4.48561668395996</v>
+        <v>103.889999389648</v>
       </c>
       <c r="I48" t="n">
+        <v>4.48561763763428</v>
+      </c>
+      <c r="J48" t="n">
         <v>137.899993896484</v>
       </c>
     </row>
@@ -1774,7 +1921,7 @@
         <v>44225</v>
       </c>
       <c r="B49" t="n">
-        <v>59.5499992370605</v>
+        <v>72.7900009155273</v>
       </c>
       <c r="C49" t="n">
         <v>7.45699977874756</v>
@@ -1786,15 +1933,18 @@
         <v>220.566589355469</v>
       </c>
       <c r="F49" t="n">
-        <v>133.257843017578</v>
+        <v>133.257827758789</v>
       </c>
       <c r="G49" t="n">
-        <v>4.42912244796753</v>
+        <v>226.259994506836</v>
       </c>
       <c r="H49" t="n">
-        <v>4.4860634803772</v>
+        <v>103.948997497559</v>
       </c>
       <c r="I49" t="n">
+        <v>4.48606395721436</v>
+      </c>
+      <c r="J49" t="n">
         <v>148.240005493164</v>
       </c>
     </row>
@@ -1803,7 +1953,7 @@
         <v>44195</v>
       </c>
       <c r="B50" t="n">
-        <v>58.9500007629395</v>
+        <v>73.3199996948242</v>
       </c>
       <c r="C50" t="n">
         <v>7.50400018692017</v>
@@ -1815,15 +1965,18 @@
         <v>221.451904296875</v>
       </c>
       <c r="F50" t="n">
-        <v>133.361206054688</v>
+        <v>133.361267089844</v>
       </c>
       <c r="G50" t="n">
-        <v>4.39851093292236</v>
+        <v>225.490005493164</v>
       </c>
       <c r="H50" t="n">
-        <v>4.48472452163696</v>
+        <v>104.000999450684</v>
       </c>
       <c r="I50" t="n">
+        <v>4.4847240447998</v>
+      </c>
+      <c r="J50" t="n">
         <v>148.75</v>
       </c>
     </row>
@@ -1832,7 +1985,7 @@
         <v>44165</v>
       </c>
       <c r="B51" t="n">
-        <v>55.9799995422363</v>
+        <v>69.9800033569336</v>
       </c>
       <c r="C51" t="n">
         <v>7.43699979782104</v>
@@ -1844,15 +1997,18 @@
         <v>221.099670410156</v>
       </c>
       <c r="F51" t="n">
-        <v>133.347320556641</v>
+        <v>133.34733581543</v>
       </c>
       <c r="G51" t="n">
-        <v>4.36503791809082</v>
+        <v>224.169998168945</v>
       </c>
       <c r="H51" t="n">
-        <v>4.48472452163696</v>
+        <v>104.064002990723</v>
       </c>
       <c r="I51" t="n">
+        <v>4.4847240447998</v>
+      </c>
+      <c r="J51" t="n">
         <v>144.350006103516</v>
       </c>
     </row>
@@ -1861,7 +2017,7 @@
         <v>44134</v>
       </c>
       <c r="B52" t="n">
-        <v>51.5950012207031</v>
+        <v>62.25</v>
       </c>
       <c r="C52" t="n">
         <v>6.875</v>
@@ -1870,18 +2026,21 @@
         <v>49.4099998474121</v>
       </c>
       <c r="E52" t="n">
-        <v>220.919403076172</v>
+        <v>220.919418334961</v>
       </c>
       <c r="F52" t="n">
-        <v>132.137222290039</v>
+        <v>132.137237548828</v>
       </c>
       <c r="G52" t="n">
-        <v>4.33817005157471</v>
+        <v>220.770004272461</v>
       </c>
       <c r="H52" t="n">
+        <v>104.138999938965</v>
+      </c>
+      <c r="I52" t="n">
         <v>4.48383140563965</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>156.380004882812</v>
       </c>
     </row>
@@ -1890,7 +2049,7 @@
         <v>44104</v>
       </c>
       <c r="B53" t="n">
-        <v>53.439998626709</v>
+        <v>64.4700012207031</v>
       </c>
       <c r="C53" t="n">
         <v>7.05800008773804</v>
@@ -1899,18 +2058,21 @@
         <v>51.0800018310547</v>
       </c>
       <c r="E53" t="n">
-        <v>218.987213134766</v>
+        <v>218.987197875977</v>
       </c>
       <c r="F53" t="n">
-        <v>131.283569335938</v>
+        <v>131.283615112305</v>
       </c>
       <c r="G53" t="n">
-        <v>4.35164642333984</v>
+        <v>218.669998168945</v>
       </c>
       <c r="H53" t="n">
-        <v>4.48427820205688</v>
+        <v>104.182998657227</v>
       </c>
       <c r="I53" t="n">
+        <v>4.48427772521973</v>
+      </c>
+      <c r="J53" t="n">
         <v>156.029998779297</v>
       </c>
     </row>
@@ -1919,7 +2081,7 @@
         <v>44071</v>
       </c>
       <c r="B54" t="n">
-        <v>54.5200004577637</v>
+        <v>66.4499969482422</v>
       </c>
       <c r="C54" t="n">
         <v>7.16099977493286</v>
@@ -1928,18 +2090,21 @@
         <v>51.7700004577637</v>
       </c>
       <c r="E54" t="n">
-        <v>216.674240112305</v>
+        <v>216.674255371094</v>
       </c>
       <c r="F54" t="n">
-        <v>130.907730102539</v>
+        <v>130.907653808594</v>
       </c>
       <c r="G54" t="n">
-        <v>4.35642862319946</v>
+        <v>218.860000610352</v>
       </c>
       <c r="H54" t="n">
-        <v>4.48356533050537</v>
+        <v>104.251998901367</v>
       </c>
       <c r="I54" t="n">
+        <v>4.48356485366821</v>
+      </c>
+      <c r="J54" t="n">
         <v>159.490005493164</v>
       </c>
     </row>
@@ -1948,7 +2113,7 @@
         <v>44043</v>
       </c>
       <c r="B55" t="n">
-        <v>51.1399993896484</v>
+        <v>62.0999984741211</v>
       </c>
       <c r="C55" t="n">
         <v>6.67799997329712</v>
@@ -1957,18 +2122,21 @@
         <v>50.2700004577637</v>
       </c>
       <c r="E55" t="n">
-        <v>217.987777709961</v>
+        <v>217.98779296875</v>
       </c>
       <c r="F55" t="n">
-        <v>130.795379638672</v>
+        <v>130.795394897461</v>
       </c>
       <c r="G55" t="n">
-        <v>4.30643892288208</v>
+        <v>219.160003662109</v>
       </c>
       <c r="H55" t="n">
-        <v>4.48311996459961</v>
+        <v>104.292999267578</v>
       </c>
       <c r="I55" t="n">
+        <v>4.48312091827393</v>
+      </c>
+      <c r="J55" t="n">
         <v>161.990005493164</v>
       </c>
     </row>
@@ -1977,7 +2145,7 @@
         <v>44012</v>
       </c>
       <c r="B56" t="n">
-        <v>47.7299995422363</v>
+        <v>59.2799987792969</v>
       </c>
       <c r="C56" t="n">
         <v>6.70499992370605</v>
@@ -1986,18 +2154,21 @@
         <v>48.6199989318848</v>
       </c>
       <c r="E56" t="n">
-        <v>216.131713867188</v>
+        <v>216.131729125977</v>
       </c>
       <c r="F56" t="n">
-        <v>129.110595703125</v>
+        <v>129.110626220703</v>
       </c>
       <c r="G56" t="n">
-        <v>4.27861881256104</v>
+        <v>215.339996337891</v>
       </c>
       <c r="H56" t="n">
-        <v>4.48178720474243</v>
+        <v>104.369003295898</v>
       </c>
       <c r="I56" t="n">
+        <v>4.48178625106812</v>
+      </c>
+      <c r="J56" t="n">
         <v>153.800003051758</v>
       </c>
     </row>
@@ -2006,7 +2177,7 @@
         <v>43980</v>
       </c>
       <c r="B57" t="n">
-        <v>45.3400001525879</v>
+        <v>57.6100006103516</v>
       </c>
       <c r="C57" t="n">
         <v>6.75099992752075</v>
@@ -2015,18 +2186,21 @@
         <v>48.6599998474121</v>
       </c>
       <c r="E57" t="n">
-        <v>213.904434204102</v>
+        <v>213.904418945312</v>
       </c>
       <c r="F57" t="n">
-        <v>127.350746154785</v>
+        <v>127.350761413574</v>
       </c>
       <c r="G57" t="n">
-        <v>4.24906015396118</v>
+        <v>210.589996337891</v>
       </c>
       <c r="H57" t="n">
-        <v>4.48134136199951</v>
+        <v>104.431999206543</v>
       </c>
       <c r="I57" t="n">
+        <v>4.48134231567383</v>
+      </c>
+      <c r="J57" t="n">
         <v>151.169998168945</v>
       </c>
     </row>
@@ -2035,7 +2209,7 @@
         <v>43951</v>
       </c>
       <c r="B58" t="n">
-        <v>43.375</v>
+        <v>55.2799987792969</v>
       </c>
       <c r="C58" t="n">
         <v>6.58900022506714</v>
@@ -2047,15 +2221,18 @@
         <v>213.069625854492</v>
       </c>
       <c r="F58" t="n">
-        <v>126.930503845215</v>
+        <v>126.930480957031</v>
       </c>
       <c r="G58" t="n">
-        <v>4.2195930480957</v>
+        <v>209.520004272461</v>
       </c>
       <c r="H58" t="n">
+        <v>104.49299621582</v>
+      </c>
+      <c r="I58" t="n">
         <v>4.48223114013672</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>150.850006103516</v>
       </c>
     </row>
@@ -2064,7 +2241,7 @@
         <v>43921</v>
       </c>
       <c r="B59" t="n">
-        <v>40.2599983215332</v>
+        <v>50.6300010681152</v>
       </c>
       <c r="C59" t="n">
         <v>5.94299983978271</v>
@@ -2076,15 +2253,18 @@
         <v>213.069625854492</v>
       </c>
       <c r="F59" t="n">
-        <v>122.214141845703</v>
+        <v>122.214134216309</v>
       </c>
       <c r="G59" t="n">
-        <v>4.1595664024353</v>
+        <v>208.429992675781</v>
       </c>
       <c r="H59" t="n">
-        <v>4.48356533050537</v>
+        <v>104.589996337891</v>
       </c>
       <c r="I59" t="n">
+        <v>4.48356485366821</v>
+      </c>
+      <c r="J59" t="n">
         <v>142.190002441406</v>
       </c>
     </row>
@@ -2093,7 +2273,7 @@
         <v>43889</v>
       </c>
       <c r="B60" t="n">
-        <v>43.3300018310547</v>
+        <v>56.9099998474121</v>
       </c>
       <c r="C60" t="n">
         <v>6.51800012588501</v>
@@ -2105,15 +2285,18 @@
         <v>216.151138305664</v>
       </c>
       <c r="F60" t="n">
-        <v>129.960357666016</v>
+        <v>129.960327148438</v>
       </c>
       <c r="G60" t="n">
-        <v>4.2315559387207</v>
+        <v>220.589996337891</v>
       </c>
       <c r="H60" t="n">
+        <v>104.599998474121</v>
+      </c>
+      <c r="I60" t="n">
         <v>4.46038675308228</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>140.130004882812</v>
       </c>
     </row>
@@ -2122,7 +2305,7 @@
         <v>43861</v>
       </c>
       <c r="B61" t="n">
-        <v>47.5099983215332</v>
+        <v>62.9099998474121</v>
       </c>
       <c r="C61" t="n">
         <v>7.15899991989136</v>
@@ -2131,18 +2314,21 @@
         <v>53.5999984741211</v>
       </c>
       <c r="E61" t="n">
-        <v>217.739410400391</v>
+        <v>217.73942565918</v>
       </c>
       <c r="F61" t="n">
-        <v>131.31169128418</v>
+        <v>131.311676025391</v>
       </c>
       <c r="G61" t="n">
-        <v>4.2110481262207</v>
+        <v>223.559997558594</v>
       </c>
       <c r="H61" t="n">
+        <v>104.652000427246</v>
+      </c>
+      <c r="I61" t="n">
         <v>4.45068883895874</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>138.929992675781</v>
       </c>
     </row>
@@ -2151,7 +2337,7 @@
         <v>43829</v>
       </c>
       <c r="B62" t="n">
-        <v>45.9000015258789</v>
+        <v>63.0499992370605</v>
       </c>
       <c r="C62" t="n">
         <v>7.12200021743774</v>
@@ -2160,18 +2346,21 @@
         <v>52.4300003051758</v>
       </c>
       <c r="E62" t="n">
-        <v>212.394393920898</v>
+        <v>212.394378662109</v>
       </c>
       <c r="F62" t="n">
-        <v>129.932403564453</v>
+        <v>129.932418823242</v>
       </c>
       <c r="G62" t="n">
-        <v>4.1937460899353</v>
+        <v>219.190002441406</v>
       </c>
       <c r="H62" t="n">
-        <v>4.44451713562012</v>
+        <v>104.707000732422</v>
       </c>
       <c r="I62" t="n">
+        <v>4.44451665878296</v>
+      </c>
+      <c r="J62" t="n">
         <v>131.119995117188</v>
       </c>
     </row>
@@ -2180,7 +2369,7 @@
         <v>43798</v>
       </c>
       <c r="B63" t="n">
-        <v>44.9500007629395</v>
+        <v>61.4500007629395</v>
       </c>
       <c r="C63" t="n">
         <v>7.02500009536743</v>
@@ -2189,18 +2378,21 @@
         <v>51.8800010681152</v>
       </c>
       <c r="E63" t="n">
-        <v>214.14436340332</v>
+        <v>214.144348144531</v>
       </c>
       <c r="F63" t="n">
-        <v>130.013626098633</v>
+        <v>130.013656616211</v>
       </c>
       <c r="G63" t="n">
-        <v>4.16298484802246</v>
+        <v>219.740005493164</v>
       </c>
       <c r="H63" t="n">
-        <v>4.43746423721313</v>
+        <v>104.773002624512</v>
       </c>
       <c r="I63" t="n">
+        <v>4.43746376037598</v>
+      </c>
+      <c r="J63" t="n">
         <v>128.970001220703</v>
       </c>
     </row>
@@ -2209,7 +2401,7 @@
         <v>43769</v>
       </c>
       <c r="B64" t="n">
-        <v>43.7400016784668</v>
+        <v>59.5099983215332</v>
       </c>
       <c r="C64" t="n">
         <v>6.62599992752075</v>
@@ -2221,15 +2413,18 @@
         <v>216.630447387695</v>
       </c>
       <c r="F64" t="n">
-        <v>130.40412902832</v>
+        <v>130.404113769531</v>
       </c>
       <c r="G64" t="n">
-        <v>4.16157007217407</v>
+        <v>221.369995117188</v>
       </c>
       <c r="H64" t="n">
-        <v>4.43349552154541</v>
+        <v>104.830001831055</v>
       </c>
       <c r="I64" t="n">
+        <v>4.43349695205688</v>
+      </c>
+      <c r="J64" t="n">
         <v>131.610000610352</v>
       </c>
     </row>
@@ -2238,7 +2433,7 @@
         <v>43738</v>
       </c>
       <c r="B65" t="n">
-        <v>43.2700004577637</v>
+        <v>58.25</v>
       </c>
       <c r="C65" t="n">
         <v>6.64799976348877</v>
@@ -2250,15 +2445,18 @@
         <v>218.850158691406</v>
       </c>
       <c r="F65" t="n">
-        <v>130.636611938477</v>
+        <v>130.63655090332</v>
       </c>
       <c r="G65" t="n">
-        <v>4.15214538574219</v>
+        <v>222.179992675781</v>
       </c>
       <c r="H65" t="n">
+        <v>104.890998840332</v>
+      </c>
+      <c r="I65" t="n">
         <v>4.422034740448</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>130.729995727539</v>
       </c>
     </row>
@@ -2267,7 +2465,7 @@
         <v>43707</v>
       </c>
       <c r="B66" t="n">
-        <v>43.4900016784668</v>
+        <v>56.9099998474121</v>
       </c>
       <c r="C66" t="n">
         <v>6.46299982070923</v>
@@ -2279,15 +2477,18 @@
         <v>219.846160888672</v>
       </c>
       <c r="F66" t="n">
-        <v>131.766677856445</v>
+        <v>131.766647338867</v>
       </c>
       <c r="G66" t="n">
-        <v>4.15905666351318</v>
+        <v>223.380004882812</v>
       </c>
       <c r="H66" t="n">
-        <v>4.41604948043823</v>
+        <v>104.945999145508</v>
       </c>
       <c r="I66" t="n">
+        <v>4.41604900360107</v>
+      </c>
+      <c r="J66" t="n">
         <v>135.070007324219</v>
       </c>
     </row>
@@ -2296,7 +2497,7 @@
         <v>43677</v>
       </c>
       <c r="B67" t="n">
-        <v>44.0099983215332</v>
+        <v>58.5900001525879</v>
       </c>
       <c r="C67" t="n">
         <v>6.58300018310547</v>
@@ -2305,18 +2506,21 @@
         <v>49.9550018310547</v>
       </c>
       <c r="E67" t="n">
-        <v>215.444717407227</v>
+        <v>215.444702148438</v>
       </c>
       <c r="F67" t="n">
-        <v>130.987457275391</v>
+        <v>130.987503051758</v>
       </c>
       <c r="G67" t="n">
-        <v>4.14188241958618</v>
+        <v>220.440002441406</v>
       </c>
       <c r="H67" t="n">
+        <v>104.999000549316</v>
+      </c>
+      <c r="I67" t="n">
         <v>4.40603256225586</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>124.610000610352</v>
       </c>
     </row>
@@ -2325,7 +2529,7 @@
         <v>43644</v>
       </c>
       <c r="B68" t="n">
-        <v>43.0800018310547</v>
+        <v>57.8199996948242</v>
       </c>
       <c r="C68" t="n">
         <v>6.26000022888184</v>
@@ -2337,15 +2541,18 @@
         <v>212.039260864258</v>
       </c>
       <c r="F68" t="n">
-        <v>129.104431152344</v>
+        <v>129.104415893555</v>
       </c>
       <c r="G68" t="n">
-        <v>4.1355996131897</v>
+        <v>214.289993286133</v>
       </c>
       <c r="H68" t="n">
-        <v>4.39906406402588</v>
+        <v>105.055000305176</v>
       </c>
       <c r="I68" t="n">
+        <v>4.39906358718872</v>
+      </c>
+      <c r="J68" t="n">
         <v>120.5</v>
       </c>
     </row>
@@ -2354,7 +2561,7 @@
         <v>43616</v>
       </c>
       <c r="B69" t="n">
-        <v>40.689998626709</v>
+        <v>54.5</v>
       </c>
       <c r="C69" t="n">
         <v>6.02400016784668</v>
@@ -2363,18 +2570,21 @@
         <v>47.2000007629395</v>
       </c>
       <c r="E69" t="n">
-        <v>207.846466064453</v>
+        <v>207.846450805664</v>
       </c>
       <c r="F69" t="n">
-        <v>127.03833770752</v>
+        <v>127.03840637207</v>
       </c>
       <c r="G69" t="n">
-        <v>4.10690546035767</v>
+        <v>209.619995117188</v>
       </c>
       <c r="H69" t="n">
-        <v>4.38686847686768</v>
+        <v>105.09400177002</v>
       </c>
       <c r="I69" t="n">
+        <v>4.38686752319336</v>
+      </c>
+      <c r="J69" t="n">
         <v>113.379997253418</v>
       </c>
     </row>
@@ -2383,7 +2593,7 @@
         <v>43585</v>
       </c>
       <c r="B70" t="n">
-        <v>41.939998626709</v>
+        <v>57.5400009155273</v>
       </c>
       <c r="C70" t="n">
         <v>6.3600001335144</v>
@@ -2392,18 +2602,21 @@
         <v>47.5499992370605</v>
       </c>
       <c r="E70" t="n">
-        <v>205.437271118164</v>
+        <v>205.437286376953</v>
       </c>
       <c r="F70" t="n">
-        <v>127.353004455566</v>
+        <v>127.352973937988</v>
       </c>
       <c r="G70" t="n">
-        <v>4.08697414398193</v>
+        <v>209.630004882812</v>
       </c>
       <c r="H70" t="n">
+        <v>105.147003173828</v>
+      </c>
+      <c r="I70" t="n">
         <v>4.37685012817383</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>111.379997253418</v>
       </c>
     </row>
@@ -2412,7 +2625,7 @@
         <v>43553</v>
       </c>
       <c r="B71" t="n">
-        <v>40.7000007629395</v>
+        <v>55.5900001525879</v>
       </c>
       <c r="C71" t="n">
         <v>6.12900018692017</v>
@@ -2424,15 +2637,18 @@
         <v>205.550674438477</v>
       </c>
       <c r="F71" t="n">
-        <v>126.64973449707</v>
+        <v>126.649780273438</v>
       </c>
       <c r="G71" t="n">
-        <v>4.06774663925171</v>
+        <v>208.610000610352</v>
       </c>
       <c r="H71" t="n">
+        <v>105.200996398926</v>
+      </c>
+      <c r="I71" t="n">
         <v>4.36857461929321</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>112.220001220703</v>
       </c>
     </row>
@@ -2478,34 +2694,40 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45643</v>
+        <v>45645</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00291595726723348</v>
+        <v>-0.0236028266154232</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0052076342564209</v>
+        <v>-0.0156228374222485</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0326539627625965</v>
+        <v>-0.0503802870544711</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00885138482688752</v>
+        <v>-0.0142663244257257</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.00921548658933791</v>
+        <v>-0.0140989361092888</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.000455897188083365</v>
+        <v>-0.0120264169958136</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00230712847884496</v>
+        <v>0.00205372378351076</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00329178725168133</v>
+        <v>0.00300930217518869</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.00876437021565735</v>
       </c>
     </row>
     <row r="3">
@@ -2513,7 +2735,7 @@
         <v>45625</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0395983606004451</v>
+        <v>0.0440940232977829</v>
       </c>
       <c r="C3" t="n">
         <v>0.076412470976696</v>
@@ -2528,12 +2750,15 @@
         <v>0.0182868044090165</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00276299426388782</v>
+        <v>0.0178125430958882</v>
       </c>
       <c r="H3" t="n">
+        <v>0.00228613606731098</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.0038264130244392</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>-0.00205313514764616</v>
       </c>
     </row>
@@ -2542,7 +2767,7 @@
         <v>45596</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.00452660148217277</v>
+        <v>-0.0140569217331497</v>
       </c>
       <c r="C4" t="n">
         <v>0.0183265343866776</v>
@@ -2557,12 +2782,15 @@
         <v>-0.00455089576705958</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.00450353185565511</v>
+        <v>-0.00852584592227135</v>
       </c>
       <c r="H4" t="n">
+        <v>0.002739954157575</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.00353676715197149</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.0687702893310422</v>
       </c>
     </row>
@@ -2571,7 +2799,7 @@
         <v>45565</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0215799658073756</v>
+        <v>0.0213939340037412</v>
       </c>
       <c r="C5" t="n">
         <v>0.00833078254594044</v>
@@ -2586,12 +2814,15 @@
         <v>0.0125091079000756</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0120887130951803</v>
+        <v>0.0141609617857119</v>
       </c>
       <c r="H5" t="n">
+        <v>0.00289435641031321</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.00426843030082247</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.0436495154095737</v>
       </c>
     </row>
@@ -2600,7 +2831,7 @@
         <v>45534</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0165839202494169</v>
+        <v>0.0182011543881724</v>
       </c>
       <c r="C6" t="n">
         <v>0.00487063379204766</v>
@@ -2615,12 +2846,15 @@
         <v>0.00193027014203873</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00638218516440814</v>
+        <v>-0.00465448665941404</v>
       </c>
       <c r="H6" t="n">
+        <v>0.00312400282867187</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.00508602943994529</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.0115831903757149</v>
       </c>
     </row>
@@ -2629,7 +2863,7 @@
         <v>45504</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0212167187888375</v>
+        <v>0.0123493301117841</v>
       </c>
       <c r="C7" t="n">
         <v>-0.0109890038898512</v>
@@ -2644,12 +2878,15 @@
         <v>0.0167648264796132</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00571657029886774</v>
+        <v>0.0181509877965156</v>
       </c>
       <c r="H7" t="n">
+        <v>0.00298582179353901</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.00511212764216307</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.0297232611933334</v>
       </c>
     </row>
@@ -2658,7 +2895,7 @@
         <v>45471</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0544474539311022</v>
+        <v>0.0373118965653918</v>
       </c>
       <c r="C8" t="n">
         <v>0.0650954205666281</v>
@@ -2673,12 +2910,15 @@
         <v>0.00821617389387419</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00727346254889216</v>
+        <v>-0.0067054920256413</v>
       </c>
       <c r="H8" t="n">
+        <v>0.00280014975495613</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.00374972202654766</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.0110463005734909</v>
       </c>
     </row>
@@ -2687,7 +2927,7 @@
         <v>45443</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0386337403767536</v>
+        <v>0.0272584920141155</v>
       </c>
       <c r="C9" t="n">
         <v>0.0179533435803647</v>
@@ -2702,12 +2942,15 @@
         <v>0.000819361582668821</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00909666278635313</v>
+        <v>-0.00398068871273427</v>
       </c>
       <c r="H9" t="n">
+        <v>0.0033287080644151</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.00475903209349093</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>-0.000578484893334896</v>
       </c>
     </row>
@@ -2716,7 +2959,7 @@
         <v>45412</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.035116132387511</v>
+        <v>-0.030477947257215</v>
       </c>
       <c r="C10" t="n">
         <v>-0.0246737039491027</v>
@@ -2731,12 +2974,15 @@
         <v>-0.010620120924057</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.00117836840957675</v>
+        <v>-0.00545464955428809</v>
       </c>
       <c r="H10" t="n">
+        <v>0.0029945558045994</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.00438165987690797</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>0.046674741860208</v>
       </c>
     </row>
@@ -2745,7 +2991,7 @@
         <v>45379</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0502127789436502</v>
+        <v>0.0363063900700351</v>
       </c>
       <c r="C11" t="n">
         <v>0.0291612009546742</v>
@@ -2760,12 +3006,15 @@
         <v>0.0133345164258647</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00592666010346021</v>
+        <v>0.0089654444736107</v>
       </c>
       <c r="H11" t="n">
+        <v>0.00367761105257358</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.00380553402985484</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.0857392976559832</v>
       </c>
     </row>
@@ -2774,7 +3023,7 @@
         <v>45351</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0839483242253332</v>
+        <v>0.0333984145552497</v>
       </c>
       <c r="C12" t="n">
         <v>0.0578856346153036</v>
@@ -2789,12 +3038,15 @@
         <v>-0.00889743283001398</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.00177492279025437</v>
+        <v>-0.00512210736899721</v>
       </c>
       <c r="H12" t="n">
+        <v>0.00303347190674153</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.00410875600950855</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>0.22077309766982</v>
       </c>
     </row>
@@ -2803,7 +3055,7 @@
         <v>45322</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0527679216679255</v>
+        <v>0.013963763772127</v>
       </c>
       <c r="C13" t="n">
         <v>0.0466170812532072</v>
@@ -2818,12 +3070,15 @@
         <v>-0.00306440866502777</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00655013821829664</v>
+        <v>-0.00723300864370424</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00392847826559706</v>
+        <v>0.00336296234819522</v>
       </c>
       <c r="I13" t="n">
+        <v>0.00392857887302034</v>
+      </c>
+      <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2832,7 +3087,7 @@
         <v>45289</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0506802649813316</v>
+        <v>0.0564525591484146</v>
       </c>
       <c r="C14" t="n">
         <v>0.0411709031178575</v>
@@ -2847,12 +3102,15 @@
         <v>0.027503384290311</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00891160953578529</v>
+        <v>0.024199701400982</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0047366847133854</v>
+        <v>0.00324199649865231</v>
       </c>
       <c r="I14" t="n">
+        <v>0.00473648285966322</v>
+      </c>
+      <c r="J14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2861,7 +3119,7 @@
         <v>45260</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0901001248439981</v>
+        <v>0.0918198859083774</v>
       </c>
       <c r="C15" t="n">
         <v>0.0510122993318223</v>
@@ -2876,12 +3134,15 @@
         <v>0.025063333038315</v>
       </c>
       <c r="G15" t="n">
-        <v>0.010229799836424</v>
+        <v>0.0268313676970646</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00535707651677964</v>
+        <v>0.00338535895020686</v>
       </c>
       <c r="I15" t="n">
+        <v>0.00535717774458178</v>
+      </c>
+      <c r="J15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,7 +3151,7 @@
         <v>45230</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0224719404061056</v>
+        <v>-0.0352380370062493</v>
       </c>
       <c r="C16" t="n">
         <v>-0.0230754230253815</v>
@@ -2902,15 +3163,18 @@
         <v>0.00719337701434397</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00560082407944607</v>
+        <v>0.0056008909701073</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00350923468076902</v>
+        <v>0.00161620847553312</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00448426617512365</v>
+        <v>0.00285448424911183</v>
       </c>
       <c r="I16" t="n">
+        <v>0.00448436831283661</v>
+      </c>
+      <c r="J16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2919,7 +3183,7 @@
         <v>45198</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0399303737255194</v>
+        <v>-0.0402771272625239</v>
       </c>
       <c r="C17" t="n">
         <v>-0.0242194486769821</v>
@@ -2931,15 +3195,18 @@
         <v>-0.0310676066700709</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0100588960059222</v>
+        <v>-0.0100590270415494</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.000292506162115957</v>
+        <v>-0.0343351339376202</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00410909868350795</v>
+        <v>0.00325378168827761</v>
       </c>
       <c r="I17" t="n">
+        <v>0.00410899658395314</v>
+      </c>
+      <c r="J17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2948,7 +3215,7 @@
         <v>45169</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.01092758784307</v>
+        <v>-0.0223854544206084</v>
       </c>
       <c r="C18" t="n">
         <v>0.0155649214616029</v>
@@ -2960,15 +3227,18 @@
         <v>0.00450479603545539</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.000667263343111735</v>
+        <v>-0.000667131776885599</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00107301626105771</v>
+        <v>-0.00262402304053333</v>
       </c>
       <c r="H18" t="n">
+        <v>0.0032166233275972</v>
+      </c>
+      <c r="I18" t="n">
         <v>0.00451327110517807</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2977,7 +3247,7 @@
         <v>45138</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0241452042889996</v>
+        <v>0.0338238595046942</v>
       </c>
       <c r="C19" t="n">
         <v>0.0286617870111028</v>
@@ -2989,15 +3259,18 @@
         <v>-0.00232835947167109</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00866489157103922</v>
+        <v>0.00866495909657417</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00460600306490067</v>
+        <v>0.0051857644483384</v>
       </c>
       <c r="H19" t="n">
+        <v>0.00251650941433401</v>
+      </c>
+      <c r="I19" t="n">
         <v>0.00453383656408812</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3006,7 +3279,7 @@
         <v>45107</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0651398759317525</v>
+        <v>0.0632176925707315</v>
       </c>
       <c r="C20" t="n">
         <v>0.040090497107655</v>
@@ -3018,15 +3291,18 @@
         <v>-0.0045814666102042</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.00346416282808826</v>
+        <v>-0.00346416328636467</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0023463722591035</v>
+        <v>-0.00418466999498412</v>
       </c>
       <c r="H20" t="n">
+        <v>0.00293670306263083</v>
+      </c>
+      <c r="I20" t="n">
         <v>0.00395807565554374</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3035,7 +3311,7 @@
         <v>45077</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0493441491421033</v>
+        <v>-0.0108587458407089</v>
       </c>
       <c r="C21" t="n">
         <v>0.0448978784896052</v>
@@ -3044,18 +3320,21 @@
         <v>-0.0418100541953499</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00673661097814193</v>
+        <v>0.0067365242374775</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00141884307059104</v>
+        <v>0.00141864425910421</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.00578854966251985</v>
+        <v>0.0084852264660038</v>
       </c>
       <c r="H21" t="n">
+        <v>0.00247244818538372</v>
+      </c>
+      <c r="I21" t="n">
         <v>0.00317645639119557</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3064,7 +3343,7 @@
         <v>45044</v>
       </c>
       <c r="B22" t="n">
-        <v>0.028165134814901</v>
+        <v>0.0189495808878373</v>
       </c>
       <c r="C22" t="n">
         <v>0.00280051936418979</v>
@@ -3073,18 +3352,21 @@
         <v>0.0279447822917087</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.00118261383819984</v>
+        <v>-0.00118261373642603</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00410626648936563</v>
+        <v>0.00410633300053354</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0017344499713825</v>
+        <v>0.00121366598183759</v>
       </c>
       <c r="H22" t="n">
+        <v>0.00224664415804843</v>
+      </c>
+      <c r="I22" t="n">
         <v>0.00258754242870496</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3093,7 +3375,7 @@
         <v>45016</v>
       </c>
       <c r="B23" t="n">
-        <v>0.00664943875895929</v>
+        <v>0.0256978019462619</v>
       </c>
       <c r="C23" t="n">
         <v>0.0114392087422606</v>
@@ -3102,18 +3384,21 @@
         <v>0.035531181238508</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0296688478117011</v>
+        <v>0.0296689364233025</v>
       </c>
       <c r="F23" t="n">
         <v>0.0165051004523511</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0194499283001339</v>
+        <v>0.0139002965874124</v>
       </c>
       <c r="H23" t="n">
+        <v>0.00230978827899309</v>
+      </c>
+      <c r="I23" t="n">
         <v>0.0055116656493972</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3122,7 +3407,7 @@
         <v>44985</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.026434116248319</v>
+        <v>-0.0170533945132727</v>
       </c>
       <c r="C24" t="n">
         <v>0.00768467375576076</v>
@@ -3131,18 +3416,21 @@
         <v>-0.0284697912294952</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.0240923336379909</v>
+        <v>-0.0240924180312984</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0182241557349013</v>
+        <v>-0.018224220902061</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.00293831568922664</v>
+        <v>-0.00181971222793864</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00335971411940572</v>
+        <v>0.00168448185767911</v>
       </c>
       <c r="I24" t="n">
+        <v>0.00335960881180997</v>
+      </c>
+      <c r="J24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3151,7 +3439,7 @@
         <v>44957</v>
       </c>
       <c r="B25" t="n">
-        <v>0.007792683994158</v>
+        <v>0.0655826651489186</v>
       </c>
       <c r="C25" t="n">
         <v>0.0455693661240253</v>
@@ -3160,18 +3448,21 @@
         <v>0.0107914083684306</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03142400392169</v>
+        <v>0.031424185112918</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0177859723405134</v>
+        <v>0.0177861086569007</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00373569986834377</v>
+        <v>0.0182037516590903</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00217856353228529</v>
+        <v>0.0014250520406196</v>
       </c>
       <c r="I25" t="n">
+        <v>0.00217877412873491</v>
+      </c>
+      <c r="J25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3180,7 +3471,7 @@
         <v>44925</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.0153461919397163</v>
+        <v>-0.0233520141845243</v>
       </c>
       <c r="C26" t="n">
         <v>-0.0614091489036854</v>
@@ -3189,18 +3480,21 @@
         <v>-0.00394126158914188</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.0516247539501209</v>
+        <v>-0.0516249187623093</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0189478937561121</v>
+        <v>-0.0189480250549505</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0047412410572194</v>
+        <v>-0.0500307814486262</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00477605611757603</v>
+        <v>0.00146602889866498</v>
       </c>
       <c r="I26" t="n">
+        <v>0.00477595043157408</v>
+      </c>
+      <c r="J26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3209,7 +3503,7 @@
         <v>44895</v>
       </c>
       <c r="B27" t="n">
-        <v>0.043575421216806</v>
+        <v>0.0476723573368261</v>
       </c>
       <c r="C27" t="n">
         <v>0.000538876849883518</v>
@@ -3218,18 +3512,21 @@
         <v>0.0461019313405973</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0216274826995608</v>
+        <v>0.021627480830535</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0320401989179393</v>
+        <v>0.0320401967263619</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.000984417334400245</v>
+        <v>0.0352587011831886</v>
       </c>
       <c r="H27" t="n">
+        <v>0.000874514961500816</v>
+      </c>
+      <c r="I27" t="n">
         <v>0.00319427879730649</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3238,7 +3535,7 @@
         <v>44865</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0859453980673177</v>
+        <v>0.0537713858804718</v>
       </c>
       <c r="C28" t="n">
         <v>0.052171942593503</v>
@@ -3247,18 +3544,21 @@
         <v>0.044635839811398</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00574764992918975</v>
+        <v>0.00574773684491392</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0011947652502855</v>
+        <v>-0.00119462869360665</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00803333512246307</v>
+        <v>0.0321124723901223</v>
       </c>
       <c r="H28" t="n">
+        <v>0.000466684982000087</v>
+      </c>
+      <c r="I28" t="n">
         <v>0.00109929346752002</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3267,7 +3567,7 @@
         <v>44834</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.0683873576280001</v>
+        <v>-0.0797180682282583</v>
       </c>
       <c r="C29" t="n">
         <v>-0.0611222891596241</v>
@@ -3279,15 +3579,18 @@
         <v>-0.0458895099491499</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.0296020344619848</v>
+        <v>-0.0296021007587466</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.030107714212531</v>
+        <v>-0.0595596082534017</v>
       </c>
       <c r="H29" t="n">
-        <v>0.00108093083094607</v>
+        <v>0.000213955412404321</v>
       </c>
       <c r="I29" t="n">
+        <v>0.00108082446122948</v>
+      </c>
+      <c r="J29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3296,7 +3599,7 @@
         <v>44804</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.0155785676264064</v>
+        <v>-0.032909330238762</v>
       </c>
       <c r="C30" t="n">
         <v>-0.0214650750696798</v>
@@ -3311,12 +3614,15 @@
         <v>-0.0539927505168682</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.0115991002302723</v>
+        <v>-0.0455773242140349</v>
       </c>
       <c r="H30" t="n">
-        <v>0.00119658492449792</v>
+        <v>-0.000262479007798189</v>
       </c>
       <c r="I30" t="n">
+        <v>0.00119669130651467</v>
+      </c>
+      <c r="J30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3325,7 +3631,7 @@
         <v>44771</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0413286875260428</v>
+        <v>0.0742253048319212</v>
       </c>
       <c r="C31" t="n">
         <v>0.109479831826969</v>
@@ -3334,18 +3640,21 @@
         <v>0.0330302245213754</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0464024379179813</v>
+        <v>0.0464025234454033</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0560277540192025</v>
+        <v>0.0560276840773042</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0172145910101025</v>
+        <v>0.0554541557687855</v>
       </c>
       <c r="H31" t="n">
-        <v>0.000698459917704897</v>
+        <v>-0.000320745969414671</v>
       </c>
       <c r="I31" t="n">
+        <v>0.000698566448392057</v>
+      </c>
+      <c r="J31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3354,7 +3663,7 @@
         <v>44742</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.0756872838953928</v>
+        <v>-0.0865817968131256</v>
       </c>
       <c r="C32" t="n">
         <v>-0.0662781006562894</v>
@@ -3363,18 +3672,21 @@
         <v>-0.0414443575322559</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.0187139457819633</v>
+        <v>-0.0187141046912868</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.0344163679483352</v>
+        <v>-0.0344163657473505</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.0148626722201526</v>
+        <v>-0.0311988038963837</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.000996820447995983</v>
+        <v>-0.000747699501555843</v>
       </c>
       <c r="I32" t="n">
+        <v>-0.000997033042366313</v>
+      </c>
+      <c r="J32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3383,7 +3695,7 @@
         <v>44712</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.0248912147290739</v>
+        <v>-0.0179405955978539</v>
       </c>
       <c r="C33" t="n">
         <v>-0.045637153588137</v>
@@ -3392,18 +3704,21 @@
         <v>-0.0236193221101648</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.0158566077565923</v>
+        <v>-0.015856606504977</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.00937234078677485</v>
+        <v>-0.00937234019301547</v>
       </c>
       <c r="G33" t="n">
-        <v>0.00156955170508843</v>
+        <v>-0.0373847295615167</v>
       </c>
       <c r="H33" t="n">
-        <v>0.000798156714595821</v>
+        <v>-0.000766596613086534</v>
       </c>
       <c r="I33" t="n">
+        <v>0.000798263149682343</v>
+      </c>
+      <c r="J33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3412,7 +3727,7 @@
         <v>44680</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.103604243319726</v>
+        <v>-0.0751343791493413</v>
       </c>
       <c r="C34" t="n">
         <v>-0.0230475135408605</v>
@@ -3421,18 +3736,21 @@
         <v>-0.0409726690033487</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.0387218138104798</v>
+        <v>-0.038721810872388</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.0312810170775315</v>
+        <v>-0.0312810151577972</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.000572064616569667</v>
+        <v>-0.0100336674730898</v>
       </c>
       <c r="H34" t="n">
+        <v>-0.000310391912344277</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3441,7 +3759,7 @@
         <v>44651</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0556744737998596</v>
+        <v>0.0352002386181558</v>
       </c>
       <c r="C35" t="n">
         <v>0.0632423313412478</v>
@@ -3450,18 +3768,21 @@
         <v>0.0494669092176716</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.0298507451699711</v>
+        <v>-0.029850600143455</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.0160517885182206</v>
+        <v>-0.0160517281327427</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.00304135623310953</v>
+        <v>0.0211639930253225</v>
       </c>
       <c r="H35" t="n">
+        <v>-0.000707686762115967</v>
+      </c>
+      <c r="I35" t="n">
         <v>-0.000398972332385839</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3470,7 +3791,7 @@
         <v>44620</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.0136474437530474</v>
+        <v>-0.0158333551316034</v>
       </c>
       <c r="C36" t="n">
         <v>-0.0285862392725269</v>
@@ -3479,18 +3800,21 @@
         <v>-0.00986500011883795</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.0189674554860576</v>
+        <v>-0.0189675277017647</v>
       </c>
       <c r="F36" t="n">
         <v>-0.0228468910108707</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00901425208733064</v>
+        <v>0.000924685702741623</v>
       </c>
       <c r="H36" t="n">
+        <v>-0.000465042013452321</v>
+      </c>
+      <c r="I36" t="n">
         <v>-0.000199340029201078</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3499,7 +3823,7 @@
         <v>44592</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.0911104824634337</v>
+        <v>-0.0650044142469267</v>
       </c>
       <c r="C37" t="n">
         <v>-0.0780141967135619</v>
@@ -3508,18 +3832,21 @@
         <v>-0.0627737656252533</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.0131601424080999</v>
+        <v>-0.0131602127355711</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.0171296667357582</v>
+        <v>-0.0171298947423852</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.00647869887167118</v>
+        <v>-0.00501838814296607</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.00039884003579882</v>
+        <v>-0.000677772783230557</v>
       </c>
       <c r="I37" t="n">
+        <v>-0.000398733749207292</v>
+      </c>
+      <c r="J37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,7 +3855,7 @@
         <v>44560</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0192654836282662</v>
+        <v>0.0459890205648115</v>
       </c>
       <c r="C38" t="n">
         <v>0.0320475143011063</v>
@@ -3537,18 +3864,21 @@
         <v>0.0533060449624618</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.0148482552710316</v>
+        <v>-0.0148482542285777</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.000265199269362637</v>
+        <v>-0.000265199207857947</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0032499286355876</v>
+        <v>0.00159164620625063</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.000199220827570068</v>
+        <v>-0.000619325830353623</v>
       </c>
       <c r="I38" t="n">
+        <v>-0.000199220848748904</v>
+      </c>
+      <c r="J38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3557,7 +3887,7 @@
         <v>44530</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.0290807811616949</v>
+        <v>-0.0186242837744339</v>
       </c>
       <c r="C39" t="n">
         <v>0.0251469458102784</v>
@@ -3566,18 +3896,21 @@
         <v>-0.0146465105089769</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0200605953660142</v>
+        <v>0.0200607400338155</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00244831762149356</v>
+        <v>0.00244855010821099</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00345304403210434</v>
+        <v>0.0136718799349973</v>
       </c>
       <c r="H39" t="n">
+        <v>-0.00065757793087895</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3586,7 +3919,7 @@
         <v>44498</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0680505795398618</v>
+        <v>0.0497780227871532</v>
       </c>
       <c r="C40" t="n">
         <v>0.066854175837769</v>
@@ -3595,18 +3928,21 @@
         <v>0.0282153549454607</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.0138783574333291</v>
+        <v>-0.0138784280549925</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.00714978847244052</v>
+        <v>-0.00714990305949748</v>
       </c>
       <c r="G40" t="n">
-        <v>0.00559395355775449</v>
+        <v>0.000849893515287192</v>
       </c>
       <c r="H40" t="n">
+        <v>-0.000492885059631742</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3615,7 +3951,7 @@
         <v>44469</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.0324675549115926</v>
+        <v>-0.0374090502359642</v>
       </c>
       <c r="C41" t="n">
         <v>-0.039384776511883</v>
@@ -3624,18 +3960,21 @@
         <v>-0.043384649087012</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.0130881185100433</v>
+        <v>-0.01308818729519</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.00698034576589834</v>
+        <v>-0.00698057257909057</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.00173306733811385</v>
+        <v>0.00349683293909919</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.000119475697271998</v>
+        <v>-0.00054096637378076</v>
       </c>
       <c r="I41" t="n">
+        <v>-0.000119581992376272</v>
+      </c>
+      <c r="J41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3644,7 +3983,7 @@
         <v>44439</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0327510665029258</v>
+        <v>0.0254558554248689</v>
       </c>
       <c r="C42" t="n">
         <v>0.0356220764729405</v>
@@ -3653,18 +3992,21 @@
         <v>0.0173517312787437</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.00617948696813508</v>
+        <v>-0.0061795553787255</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.00514773822869186</v>
+        <v>-0.00514739617870885</v>
       </c>
       <c r="G42" t="n">
-        <v>0.00154291583739918</v>
+        <v>-0.00204270889550795</v>
       </c>
       <c r="H42" t="n">
+        <v>-0.00066610912066456</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3673,7 +4015,7 @@
         <v>44407</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0172934156496158</v>
+        <v>0.0195558041791106</v>
       </c>
       <c r="C43" t="n">
         <v>0.033018336310628</v>
@@ -3682,18 +4024,21 @@
         <v>0.0293047077347801</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0180370846640885</v>
+        <v>0.0180370821202815</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0119158420507999</v>
+        <v>0.0119160755509717</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0128930935544644</v>
+        <v>0.0268309713682329</v>
       </c>
       <c r="H43" t="n">
+        <v>-0.00055958955188451</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>0.0371809133892271</v>
       </c>
     </row>
@@ -3702,7 +4047,7 @@
         <v>44377</v>
       </c>
       <c r="B44" t="n">
-        <v>0.00952986935082212</v>
+        <v>0.0107369114598328</v>
       </c>
       <c r="C44" t="n">
         <v>0.0594817583103902</v>
@@ -3711,18 +4056,21 @@
         <v>0.00487887754442773</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0046850728464003</v>
+        <v>0.00468521453921289</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00487727906539148</v>
+        <v>0.0048772801963155</v>
       </c>
       <c r="G44" t="n">
-        <v>0.00039077583546776</v>
+        <v>0.00364019933797155</v>
       </c>
       <c r="H44" t="n">
+        <v>-0.000597877567739546</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>-0.0414255984628182</v>
       </c>
     </row>
@@ -3731,7 +4079,7 @@
         <v>44344</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.0122606822086162</v>
+        <v>0.0171258032025277</v>
       </c>
       <c r="C45" t="n">
         <v>-0.000588594998031433</v>
@@ -3743,15 +4091,18 @@
         <v>-0.000353540225186411</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.00328137211182689</v>
+        <v>-0.00328148804857487</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0073367470279857</v>
+        <v>0.00595601704277327</v>
       </c>
       <c r="H45" t="n">
+        <v>-0.000558942394523365</v>
+      </c>
+      <c r="I45" t="n">
         <v>-0.0000995885938855912</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>0.0576692932516212</v>
       </c>
     </row>
@@ -3760,7 +4111,7 @@
         <v>44316</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0691813299472517</v>
+        <v>0.0455430407438575</v>
       </c>
       <c r="C46" t="n">
         <v>0.020788313512484</v>
@@ -3772,15 +4123,18 @@
         <v>-0.00997330299876398</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.000284883729661733</v>
+        <v>-0.000285114745977588</v>
       </c>
       <c r="G46" t="n">
-        <v>0.00890390843579247</v>
+        <v>-0.0063565689551639</v>
       </c>
       <c r="H46" t="n">
+        <v>-0.000481655354061528</v>
+      </c>
+      <c r="I46" t="n">
         <v>0.000099598512761423</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>0.0113086505609394</v>
       </c>
     </row>
@@ -3789,7 +4143,7 @@
         <v>44286</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.00185717729531842</v>
+        <v>0.0299344889610831</v>
       </c>
       <c r="C47" t="n">
         <v>0.0758887402998163</v>
@@ -3801,15 +4155,18 @@
         <v>0.00567480975788892</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00328274515985472</v>
+        <v>0.0032829773480938</v>
       </c>
       <c r="G47" t="n">
-        <v>0.00827913014273363</v>
+        <v>0.022364671936028</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0000798339963132833</v>
+        <v>-0.000721888041994356</v>
       </c>
       <c r="I47" t="n">
+        <v>0.0000796213722047412</v>
+      </c>
+      <c r="J47" t="n">
         <v>0.0195794947536982</v>
       </c>
     </row>
@@ -3818,7 +4175,7 @@
         <v>44253</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.00537363054448314</v>
+        <v>0.0280258399487419</v>
       </c>
       <c r="C48" t="n">
         <v>0.0372804563517819</v>
@@ -3830,15 +4187,18 @@
         <v>-0.0189037714980202</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.012062722584862</v>
+        <v>-0.0120627239661132</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.00308261478684013</v>
+        <v>-0.0138778372928563</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.0000995965436492163</v>
+        <v>-0.000567567839329541</v>
       </c>
       <c r="I48" t="n">
+        <v>-0.000099490240071276</v>
+      </c>
+      <c r="J48" t="n">
         <v>-0.0697518295569445</v>
       </c>
     </row>
@@ -3847,7 +4207,7 @@
         <v>44225</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0101780910323295</v>
+        <v>-0.00722857039692937</v>
       </c>
       <c r="C49" t="n">
         <v>-0.00626338046399988</v>
@@ -3859,15 +4219,18 @@
         <v>-0.00399777524703249</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.000775060755426771</v>
+        <v>-0.000775632485442768</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00695951778044757</v>
+        <v>0.00341473677286874</v>
       </c>
       <c r="H49" t="n">
-        <v>0.000298559863325831</v>
+        <v>-0.000500013974862434</v>
       </c>
       <c r="I49" t="n">
+        <v>0.000298772544568227</v>
+      </c>
+      <c r="J49" t="n">
         <v>-0.00342853449973735</v>
       </c>
     </row>
@@ -3876,7 +4239,7 @@
         <v>44195</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0530546846193218</v>
+        <v>0.0477278676432029</v>
       </c>
       <c r="C50" t="n">
         <v>0.00900906157329073</v>
@@ -3888,15 +4251,18 @@
         <v>0.00159310000808843</v>
       </c>
       <c r="F50" t="n">
-        <v>0.000104130311647133</v>
+        <v>0.000104473586433951</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00766843621055724</v>
+        <v>0.00588842099746079</v>
       </c>
       <c r="H50" t="n">
+        <v>-0.000605430679470165</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>0.0304814250809873</v>
       </c>
     </row>
@@ -3905,7 +4271,7 @@
         <v>44165</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0849888209668976</v>
+        <v>0.124176760753953</v>
       </c>
       <c r="C51" t="n">
         <v>0.0817454251376066</v>
@@ -3914,18 +4280,21 @@
         <v>0.0625379510651776</v>
       </c>
       <c r="E51" t="n">
-        <v>0.000815986877903185</v>
+        <v>0.000815917752064799</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00915789090787311</v>
+        <v>0.00915788985034904</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00619336406749671</v>
+        <v>0.0154006152588027</v>
       </c>
       <c r="H51" t="n">
-        <v>0.000199185900743526</v>
+        <v>-0.000720161978568501</v>
       </c>
       <c r="I51" t="n">
+        <v>0.000199079554827453</v>
+      </c>
+      <c r="J51" t="n">
         <v>-0.0769279856993985</v>
       </c>
     </row>
@@ -3934,7 +4303,7 @@
         <v>44134</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.0345246529457008</v>
+        <v>-0.0344346390362751</v>
       </c>
       <c r="C52" t="n">
         <v>-0.0259280370449365</v>
@@ -3943,18 +4312,21 @@
         <v>-0.0326938512877515</v>
       </c>
       <c r="E52" t="n">
-        <v>0.00882330029113243</v>
+        <v>0.00882344026374859</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00650235942258082</v>
+        <v>0.0065021246999728</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.003096844378913</v>
+        <v>0.00960354013399289</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.0000996361949692215</v>
+        <v>-0.000422321480748278</v>
       </c>
       <c r="I52" t="n">
+        <v>-0.0000995298702326508</v>
+      </c>
+      <c r="J52" t="n">
         <v>0.002243197502108</v>
       </c>
     </row>
@@ -3963,7 +4335,7 @@
         <v>44104</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.0198092777326985</v>
+        <v>-0.0297967768016796</v>
       </c>
       <c r="C53" t="n">
         <v>-0.014383422766661</v>
@@ -3972,18 +4344,21 @@
         <v>-0.0133281557003639</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0106748869697759</v>
+        <v>0.0106747453725939</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00287102398845396</v>
+        <v>0.00287195815349839</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.00109773400949398</v>
+        <v>-0.00086814603342944</v>
       </c>
       <c r="H53" t="n">
-        <v>0.000158996579499693</v>
+        <v>-0.000661860154891669</v>
       </c>
       <c r="I53" t="n">
+        <v>0.000158996596409278</v>
+      </c>
+      <c r="J53" t="n">
         <v>-0.0216941914521126</v>
       </c>
     </row>
@@ -3992,7 +4367,7 @@
         <v>44071</v>
       </c>
       <c r="B54" t="n">
-        <v>0.066093099500494</v>
+        <v>0.0700482863286038</v>
       </c>
       <c r="C54" t="n">
         <v>0.0723270146102248</v>
@@ -4001,18 +4376,21 @@
         <v>0.0298388698297365</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.00602573966052333</v>
+        <v>-0.0060257392387314</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00085897884296493</v>
+        <v>0.000858278773658849</v>
       </c>
       <c r="G54" t="n">
-        <v>0.011608129411</v>
+        <v>-0.00136887683311204</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0000993428481232961</v>
+        <v>-0.00039312673428582</v>
       </c>
       <c r="I54" t="n">
+        <v>0.0000990237386810922</v>
+      </c>
+      <c r="J54" t="n">
         <v>-0.0154330508995847</v>
       </c>
     </row>
@@ -4021,7 +4399,7 @@
         <v>44043</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0714435340481114</v>
+        <v>0.0475708460339761</v>
       </c>
       <c r="C55" t="n">
         <v>-0.00402683828727202</v>
@@ -4030,18 +4408,21 @@
         <v>0.0339366837130233</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00858765152768837</v>
+        <v>0.00858765092140445</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0130491531417052</v>
+        <v>0.0130490318734715</v>
       </c>
       <c r="G55" t="n">
-        <v>0.00650212405914075</v>
+        <v>0.0177394231874359</v>
       </c>
       <c r="H55" t="n">
-        <v>0.000297372408883501</v>
+        <v>-0.000728224146251844</v>
       </c>
       <c r="I55" t="n">
+        <v>0.000297798049938791</v>
+      </c>
+      <c r="J55" t="n">
         <v>0.0532509901098643</v>
       </c>
     </row>
@@ -4050,7 +4431,7 @@
         <v>44012</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0527128227085376</v>
+        <v>0.0289879908219484</v>
       </c>
       <c r="C56" t="n">
         <v>-0.00681380600037873</v>
@@ -4059,18 +4440,21 @@
         <v>-0.000822049232486188</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0104124987935534</v>
+        <v>0.0104126422055522</v>
       </c>
       <c r="F56" t="n">
-        <v>0.013818918235476</v>
+        <v>0.013819036396757</v>
       </c>
       <c r="G56" t="n">
-        <v>0.00695651685992194</v>
+        <v>0.0225556772999731</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0000994886813800999</v>
+        <v>-0.000603224214064335</v>
       </c>
       <c r="I56" t="n">
+        <v>0.0000990630402712966</v>
+      </c>
+      <c r="J56" t="n">
         <v>0.0173976643161247</v>
       </c>
     </row>
@@ -4079,7 +4463,7 @@
         <v>43980</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0453025971778187</v>
+        <v>0.042149093388318</v>
       </c>
       <c r="C57" t="n">
         <v>0.0245863859341366</v>
@@ -4088,18 +4472,21 @@
         <v>0.022268937127536</v>
       </c>
       <c r="E57" t="n">
-        <v>0.00391800730048431</v>
+        <v>0.00391793568638632</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00331080628248959</v>
+        <v>0.00331110741387053</v>
       </c>
       <c r="G57" t="n">
-        <v>0.00698339994629982</v>
+        <v>0.00510687306037982</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.000198512327764466</v>
+        <v>-0.000583742561571898</v>
       </c>
       <c r="I57" t="n">
+        <v>-0.000198299559996284</v>
+      </c>
+      <c r="J57" t="n">
         <v>0.00212125987724598</v>
       </c>
     </row>
@@ -4108,7 +4495,7 @@
         <v>43951</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0773721263868192</v>
+        <v>0.0918427338155841</v>
       </c>
       <c r="C58" t="n">
         <v>0.108699377873118</v>
@@ -4120,15 +4507,18 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0385909676923166</v>
+        <v>0.0385908452485137</v>
       </c>
       <c r="G58" t="n">
-        <v>0.014430986274256</v>
+        <v>0.00522962929992143</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.000297573531398032</v>
+        <v>-0.000927432120342964</v>
       </c>
       <c r="I58" t="n">
+        <v>-0.000297467210807256</v>
+      </c>
+      <c r="J58" t="n">
         <v>0.0609044483677956</v>
       </c>
     </row>
@@ -4137,7 +4527,7 @@
         <v>43921</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.0708516819706481</v>
+        <v>-0.110349653771479</v>
       </c>
       <c r="C59" t="n">
         <v>-0.0882172867439492</v>
@@ -4149,15 +4539,18 @@
         <v>-0.014256286019712</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.0596044513837016</v>
+        <v>-0.0596042892634565</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.0170125451082102</v>
+        <v>-0.0551249098507767</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0051965398307845</v>
+        <v>-0.0000956227187034475</v>
       </c>
       <c r="I59" t="n">
+        <v>0.00519643292589378</v>
+      </c>
+      <c r="J59" t="n">
         <v>0.0147006171898481</v>
       </c>
     </row>
@@ -4166,7 +4559,7 @@
         <v>43889</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.0879814068228244</v>
+        <v>-0.0953743445327129</v>
       </c>
       <c r="C60" t="n">
         <v>-0.0895376171503122</v>
@@ -4175,18 +4568,21 @@
         <v>-0.0895522271213881</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.00729437124774956</v>
+        <v>-0.00729444081478248</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.0102910381013946</v>
+        <v>-0.0102911555000778</v>
       </c>
       <c r="G60" t="n">
-        <v>0.00487000192952092</v>
+        <v>-0.0132850297599628</v>
       </c>
       <c r="H60" t="n">
+        <v>-0.000496903574826124</v>
+      </c>
+      <c r="I60" t="n">
         <v>0.00217896925047767</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>0.00863753163675529</v>
       </c>
     </row>
@@ -4195,7 +4591,7 @@
         <v>43861</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0350761817458016</v>
+        <v>-0.00222045029885021</v>
       </c>
       <c r="C61" t="n">
         <v>0.00519512795899968</v>
@@ -4204,18 +4600,21 @@
         <v>0.0223154331896849</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0251655252326615</v>
+        <v>0.0251656707241463</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0106154252664337</v>
+        <v>0.0106151891470962</v>
       </c>
       <c r="G61" t="n">
-        <v>0.00412567568812139</v>
+        <v>0.0199370184247143</v>
       </c>
       <c r="H61" t="n">
-        <v>0.00138861053975026</v>
+        <v>-0.000525278202900048</v>
       </c>
       <c r="I61" t="n">
+        <v>0.00138871797534712</v>
+      </c>
+      <c r="J61" t="n">
         <v>0.0595637419877391</v>
       </c>
     </row>
@@ -4224,7 +4623,7 @@
         <v>43829</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0211346106076757</v>
+        <v>0.0260374036494082</v>
       </c>
       <c r="C62" t="n">
         <v>0.0138078463706042</v>
@@ -4233,18 +4632,21 @@
         <v>0.0106013728939294</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.00817191475232049</v>
+        <v>-0.0081719153346077</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.000624723243378145</v>
+        <v>-0.000624840459710785</v>
       </c>
       <c r="G62" t="n">
-        <v>0.00738922744997605</v>
+        <v>-0.0025029718667906</v>
       </c>
       <c r="H62" t="n">
-        <v>0.00158939836581351</v>
+        <v>-0.000629951327503542</v>
       </c>
       <c r="I62" t="n">
+        <v>0.00158939853660578</v>
+      </c>
+      <c r="J62" t="n">
         <v>0.0166704960543897</v>
       </c>
     </row>
@@ -4253,7 +4655,7 @@
         <v>43798</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0276634439423979</v>
+        <v>0.0325996050432467</v>
       </c>
       <c r="C63" t="n">
         <v>0.0602173516769073</v>
@@ -4262,18 +4664,21 @@
         <v>0.0117005129309908</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.0114761521953826</v>
+        <v>-0.0114762226323375</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.00299455954805461</v>
+        <v>-0.00299420886376622</v>
       </c>
       <c r="G63" t="n">
-        <v>0.000339962039290986</v>
+        <v>-0.00736319130856267</v>
       </c>
       <c r="H63" t="n">
-        <v>0.000895166274204495</v>
+        <v>-0.000543729901243628</v>
       </c>
       <c r="I63" t="n">
+        <v>0.000894735772233091</v>
+      </c>
+      <c r="J63" t="n">
         <v>-0.0200592612826171</v>
       </c>
     </row>
@@ -4282,7 +4687,7 @@
         <v>43769</v>
       </c>
       <c r="B64" t="n">
-        <v>0.010862057215874</v>
+        <v>0.021630872472673</v>
       </c>
       <c r="C64" t="n">
         <v>-0.00330924138849131</v>
@@ -4294,15 +4699,18 @@
         <v>-0.0101426076955278</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.00177961527558401</v>
+        <v>-0.00177926569694176</v>
       </c>
       <c r="G64" t="n">
-        <v>0.00226983536372494</v>
+        <v>-0.00364568181337444</v>
       </c>
       <c r="H64" t="n">
-        <v>0.00259174379445315</v>
+        <v>-0.000581527585319264</v>
       </c>
       <c r="I64" t="n">
+        <v>0.00259206729066208</v>
+      </c>
+      <c r="J64" t="n">
         <v>0.00673146876441866</v>
       </c>
     </row>
@@ -4311,7 +4719,7 @@
         <v>43738</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.00505866204213223</v>
+        <v>0.0235459524895576</v>
       </c>
       <c r="C65" t="n">
         <v>0.0286244697372187</v>
@@ -4323,15 +4731,18 @@
         <v>-0.00453045071717217</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.00857626477613649</v>
+        <v>-0.00857649836563412</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.00166174167128519</v>
+        <v>-0.00537206634792931</v>
       </c>
       <c r="H65" t="n">
-        <v>0.00135534260571091</v>
+        <v>-0.000524081962376854</v>
       </c>
       <c r="I65" t="n">
+        <v>0.00135545073028909</v>
+      </c>
+      <c r="J65" t="n">
         <v>-0.0321315714913825</v>
       </c>
     </row>
@@ -4340,7 +4751,7 @@
         <v>43707</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.0118154206520835</v>
+        <v>-0.0286738402594385</v>
       </c>
       <c r="C66" t="n">
         <v>-0.0182288256203011</v>
@@ -4349,18 +4760,21 @@
         <v>0.0105094123098455</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0204295725344978</v>
+        <v>0.0204296448060339</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0059488182858336</v>
+        <v>0.00594823375479958</v>
       </c>
       <c r="G66" t="n">
-        <v>0.00414648273108575</v>
+        <v>0.0133369733662008</v>
       </c>
       <c r="H66" t="n">
-        <v>0.00227345532309098</v>
+        <v>-0.000504780079156109</v>
       </c>
       <c r="I66" t="n">
+        <v>0.00227334709938831</v>
+      </c>
+      <c r="J66" t="n">
         <v>0.0839419521919034</v>
       </c>
     </row>
@@ -4369,7 +4783,7 @@
         <v>43677</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0215876613498218</v>
+        <v>0.0133171992706289</v>
       </c>
       <c r="C67" t="n">
         <v>0.051597434890402</v>
@@ -4378,18 +4792,21 @@
         <v>0.0126697745145135</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0160604999710352</v>
+        <v>0.016060428008942</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0145852942942362</v>
+        <v>0.0145857687761486</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0015192008376359</v>
+        <v>0.0286994696344107</v>
       </c>
       <c r="H67" t="n">
-        <v>0.00158408655308451</v>
+        <v>-0.000533051789031513</v>
       </c>
       <c r="I67" t="n">
+        <v>0.00158419511994201</v>
+      </c>
+      <c r="J67" t="n">
         <v>0.0341078888825856</v>
       </c>
     </row>
@@ -4398,7 +4815,7 @@
         <v>43644</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0587368710987595</v>
+        <v>0.0609174255931049</v>
       </c>
       <c r="C68" t="n">
         <v>0.0391766358664489</v>
@@ -4407,18 +4824,21 @@
         <v>0.045127140544194</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0201725575574834</v>
+        <v>0.0201726324521847</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0162635428179247</v>
+        <v>0.0162628734135206</v>
       </c>
       <c r="G68" t="n">
-        <v>0.00698680627275317</v>
+        <v>0.0222784003326331</v>
       </c>
       <c r="H68" t="n">
-        <v>0.00278002115233478</v>
+        <v>-0.000371110284001719</v>
       </c>
       <c r="I68" t="n">
+        <v>0.00278013045319492</v>
+      </c>
+      <c r="J68" t="n">
         <v>0.0627976972928299</v>
       </c>
     </row>
@@ -4427,7 +4847,7 @@
         <v>43616</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.0298044835701056</v>
+        <v>-0.0528328270274148</v>
       </c>
       <c r="C69" t="n">
         <v>-0.0528301821720337</v>
@@ -4436,18 +4856,21 @@
         <v>-0.00736064100392886</v>
       </c>
       <c r="E69" t="n">
-        <v>0.011727156095757</v>
+        <v>0.0117270066753627</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.00247082312185787</v>
+        <v>-0.00247004491682412</v>
       </c>
       <c r="G69" t="n">
-        <v>0.00487679042576805</v>
+        <v>-0.0000477496798733101</v>
       </c>
       <c r="H69" t="n">
-        <v>0.00228894031106064</v>
+        <v>-0.000504069561744647</v>
       </c>
       <c r="I69" t="n">
+        <v>0.0022887224205026</v>
+      </c>
+      <c r="J69" t="n">
         <v>0.0179565456035116</v>
       </c>
     </row>
@@ -4456,7 +4879,7 @@
         <v>43585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0304667774084821</v>
+        <v>0.0350782651121953</v>
       </c>
       <c r="C70" t="n">
         <v>0.0376896621878415</v>
@@ -4465,18 +4888,21 @@
         <v>0.00998295216071643</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.000551704929318775</v>
+        <v>-0.000551630695609151</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00555287353178269</v>
+        <v>0.0055522691238199</v>
       </c>
       <c r="G70" t="n">
-        <v>0.00472681964621113</v>
+        <v>0.00488952720136426</v>
       </c>
       <c r="H70" t="n">
+        <v>-0.000513238723451881</v>
+      </c>
+      <c r="I70" t="n">
         <v>0.00189432700635761</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>-0.00748533200987156</v>
       </c>
     </row>

--- a/input/multiassets_ret.xlsx
+++ b/input/multiassets_ret.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Dates</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t xml:space="preserve">EU Gov bonds 7-10y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU Corp Large Cap bonds</t>
   </si>
   <si>
     <t xml:space="preserve">EU Inflation-Linked</t>
@@ -408,40 +405,34 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45645</v>
+        <v>45649</v>
       </c>
       <c r="B2" t="n">
-        <v>107.970001220703</v>
+        <v>108.180000305176</v>
       </c>
       <c r="C2" t="n">
-        <v>14.3660001754761</v>
+        <v>14.3559999465942</v>
       </c>
       <c r="D2" t="n">
-        <v>66.1600036621094</v>
+        <v>66.0400009155273</v>
       </c>
       <c r="E2" t="n">
-        <v>189.320007324219</v>
+        <v>189</v>
       </c>
       <c r="F2" t="n">
-        <v>125.169998168945</v>
+        <v>228.660003662109</v>
       </c>
       <c r="G2" t="n">
-        <v>229.199996948242</v>
+        <v>110.30899810791</v>
       </c>
       <c r="H2" t="n">
-        <v>110.268997192383</v>
+        <v>5.00099992752075</v>
       </c>
       <c r="I2" t="n">
-        <v>4.99949979782104</v>
-      </c>
-      <c r="J2" t="n">
-        <v>240.899993896484</v>
+        <v>242.149993896484</v>
       </c>
     </row>
     <row r="3">
@@ -461,18 +452,15 @@
         <v>192.059997558594</v>
       </c>
       <c r="F3" t="n">
-        <v>126.959999084473</v>
+        <v>231.990005493164</v>
       </c>
       <c r="G3" t="n">
-        <v>231.990005493164</v>
+        <v>110.042999267578</v>
       </c>
       <c r="H3" t="n">
-        <v>110.042999267578</v>
+        <v>4.98449993133545</v>
       </c>
       <c r="I3" t="n">
-        <v>4.98449993133545</v>
-      </c>
-      <c r="J3" t="n">
         <v>243.029998779297</v>
       </c>
     </row>
@@ -493,18 +481,15 @@
         <v>187.160202026367</v>
       </c>
       <c r="F4" t="n">
-        <v>124.680000305176</v>
+        <v>227.929992675781</v>
       </c>
       <c r="G4" t="n">
-        <v>227.929992675781</v>
+        <v>109.791999816895</v>
       </c>
       <c r="H4" t="n">
-        <v>109.791999816895</v>
+        <v>4.96549987792969</v>
       </c>
       <c r="I4" t="n">
-        <v>4.96549987792969</v>
-      </c>
-      <c r="J4" t="n">
         <v>243.529998779297</v>
       </c>
     </row>
@@ -525,18 +510,15 @@
         <v>190.207229614258</v>
       </c>
       <c r="F5" t="n">
-        <v>125.25</v>
+        <v>229.889999389648</v>
       </c>
       <c r="G5" t="n">
-        <v>229.889999389648</v>
+        <v>109.491996765137</v>
       </c>
       <c r="H5" t="n">
-        <v>109.491996765137</v>
+        <v>4.94799995422363</v>
       </c>
       <c r="I5" t="n">
-        <v>4.94799995422363</v>
-      </c>
-      <c r="J5" t="n">
         <v>227.860000610352</v>
       </c>
     </row>
@@ -557,18 +539,15 @@
         <v>187.179931640625</v>
       </c>
       <c r="F6" t="n">
-        <v>123.702590942383</v>
+        <v>226.679992675781</v>
       </c>
       <c r="G6" t="n">
-        <v>226.679992675781</v>
+        <v>109.176002502441</v>
       </c>
       <c r="H6" t="n">
-        <v>109.176002502441</v>
+        <v>4.92696952819824</v>
       </c>
       <c r="I6" t="n">
-        <v>4.92696952819824</v>
-      </c>
-      <c r="J6" t="n">
         <v>218.330001831055</v>
       </c>
     </row>
@@ -589,18 +568,15 @@
         <v>186.726318359375</v>
       </c>
       <c r="F7" t="n">
-        <v>123.46427154541</v>
+        <v>227.740005493164</v>
       </c>
       <c r="G7" t="n">
-        <v>227.740005493164</v>
+        <v>108.835998535156</v>
       </c>
       <c r="H7" t="n">
-        <v>108.835998535156</v>
+        <v>4.90203762054443</v>
       </c>
       <c r="I7" t="n">
-        <v>4.90203762054443</v>
-      </c>
-      <c r="J7" t="n">
         <v>215.830001831055</v>
       </c>
     </row>
@@ -621,18 +597,15 @@
         <v>182.032531738281</v>
       </c>
       <c r="F8" t="n">
-        <v>121.42854309082</v>
+        <v>223.679992675781</v>
       </c>
       <c r="G8" t="n">
-        <v>223.679992675781</v>
+        <v>108.512001037598</v>
       </c>
       <c r="H8" t="n">
-        <v>108.512001037598</v>
+        <v>4.87710523605347</v>
       </c>
       <c r="I8" t="n">
-        <v>4.87710523605347</v>
-      </c>
-      <c r="J8" t="n">
         <v>209.600006103516</v>
       </c>
     </row>
@@ -653,18 +626,15 @@
         <v>181.549331665039</v>
       </c>
       <c r="F9" t="n">
-        <v>120.438995361328</v>
+        <v>225.190002441406</v>
       </c>
       <c r="G9" t="n">
-        <v>225.190002441406</v>
+        <v>108.208999633789</v>
       </c>
       <c r="H9" t="n">
-        <v>108.208999633789</v>
+        <v>4.85888576507568</v>
       </c>
       <c r="I9" t="n">
-        <v>4.85888576507568</v>
-      </c>
-      <c r="J9" t="n">
         <v>207.309997558594</v>
       </c>
     </row>
@@ -685,18 +655,15 @@
         <v>181.960708618164</v>
       </c>
       <c r="F10" t="n">
-        <v>120.340393066406</v>
+        <v>226.089996337891</v>
       </c>
       <c r="G10" t="n">
-        <v>226.089996337891</v>
+        <v>107.849998474121</v>
       </c>
       <c r="H10" t="n">
-        <v>107.849998474121</v>
+        <v>4.83587169647217</v>
       </c>
       <c r="I10" t="n">
-        <v>4.83587169647217</v>
-      </c>
-      <c r="J10" t="n">
         <v>207.429992675781</v>
       </c>
     </row>
@@ -717,18 +684,15 @@
         <v>184.947998046875</v>
       </c>
       <c r="F11" t="n">
-        <v>121.632141113281</v>
+        <v>227.330001831055</v>
       </c>
       <c r="G11" t="n">
-        <v>227.330001831055</v>
+        <v>107.52799987793</v>
       </c>
       <c r="H11" t="n">
-        <v>107.52799987793</v>
+        <v>4.81477499008179</v>
       </c>
       <c r="I11" t="n">
-        <v>4.81477499008179</v>
-      </c>
-      <c r="J11" t="n">
         <v>198.179992675781</v>
       </c>
     </row>
@@ -749,18 +713,15 @@
         <v>182.875381469727</v>
       </c>
       <c r="F12" t="n">
-        <v>120.031578063965</v>
+        <v>225.309997558594</v>
       </c>
       <c r="G12" t="n">
-        <v>225.309997558594</v>
+        <v>107.134002685547</v>
       </c>
       <c r="H12" t="n">
-        <v>107.134002685547</v>
+        <v>4.79652166366577</v>
       </c>
       <c r="I12" t="n">
-        <v>4.79652166366577</v>
-      </c>
-      <c r="J12" t="n">
         <v>182.529998779297</v>
       </c>
     </row>
@@ -781,18 +742,15 @@
         <v>185.541534423828</v>
       </c>
       <c r="F13" t="n">
-        <v>121.10913848877</v>
+        <v>226.470001220703</v>
       </c>
       <c r="G13" t="n">
-        <v>226.470001220703</v>
+        <v>106.809997558594</v>
       </c>
       <c r="H13" t="n">
-        <v>106.809997558594</v>
+        <v>4.77689456939697</v>
       </c>
       <c r="I13" t="n">
-        <v>4.77689456939697</v>
-      </c>
-      <c r="J13" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -813,18 +771,15 @@
         <v>186.534057617188</v>
       </c>
       <c r="F14" t="n">
-        <v>121.481407165527</v>
+        <v>228.119995117188</v>
       </c>
       <c r="G14" t="n">
-        <v>228.119995117188</v>
+        <v>106.452003479004</v>
       </c>
       <c r="H14" t="n">
-        <v>106.452003479004</v>
+        <v>4.75820159912109</v>
       </c>
       <c r="I14" t="n">
-        <v>4.75820159912109</v>
-      </c>
-      <c r="J14" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -845,18 +800,15 @@
         <v>179.382141113281</v>
       </c>
       <c r="F15" t="n">
-        <v>118.229690551758</v>
+        <v>222.729995727539</v>
       </c>
       <c r="G15" t="n">
-        <v>222.729995727539</v>
+        <v>106.108001708984</v>
       </c>
       <c r="H15" t="n">
-        <v>106.108001708984</v>
+        <v>4.73577070236206</v>
       </c>
       <c r="I15" t="n">
-        <v>4.73577070236206</v>
-      </c>
-      <c r="J15" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -877,18 +829,15 @@
         <v>173.572418212891</v>
       </c>
       <c r="F16" t="n">
-        <v>115.338912963867</v>
+        <v>216.910003662109</v>
       </c>
       <c r="G16" t="n">
-        <v>216.910003662109</v>
+        <v>105.75</v>
       </c>
       <c r="H16" t="n">
-        <v>105.75</v>
+        <v>4.71053552627563</v>
       </c>
       <c r="I16" t="n">
-        <v>4.71053552627563</v>
-      </c>
-      <c r="J16" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -909,18 +858,15 @@
         <v>172.332763671875</v>
       </c>
       <c r="F17" t="n">
-        <v>114.696510314941</v>
+        <v>216.559997558594</v>
       </c>
       <c r="G17" t="n">
-        <v>216.559997558594</v>
+        <v>105.448997497559</v>
       </c>
       <c r="H17" t="n">
-        <v>105.448997497559</v>
+        <v>4.68950605392456</v>
       </c>
       <c r="I17" t="n">
-        <v>4.68950605392456</v>
-      </c>
-      <c r="J17" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -941,18 +887,15 @@
         <v>177.8583984375</v>
       </c>
       <c r="F18" t="n">
-        <v>115.861968994141</v>
+        <v>224.259994506836</v>
       </c>
       <c r="G18" t="n">
-        <v>224.259994506836</v>
+        <v>105.107002258301</v>
       </c>
       <c r="H18" t="n">
-        <v>105.107002258301</v>
+        <v>4.67031574249268</v>
       </c>
       <c r="I18" t="n">
-        <v>4.67031574249268</v>
-      </c>
-      <c r="J18" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -973,18 +916,15 @@
         <v>177.060775756836</v>
       </c>
       <c r="F19" t="n">
-        <v>115.939315795898</v>
+        <v>224.850006103516</v>
       </c>
       <c r="G19" t="n">
-        <v>224.850006103516</v>
+        <v>104.769996643066</v>
       </c>
       <c r="H19" t="n">
-        <v>104.769996643066</v>
+        <v>4.64933204650879</v>
       </c>
       <c r="I19" t="n">
-        <v>4.64933204650879</v>
-      </c>
-      <c r="J19" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1005,18 +945,15 @@
         <v>177.473999023438</v>
       </c>
       <c r="F20" t="n">
-        <v>114.943336486816</v>
+        <v>223.690002441406</v>
       </c>
       <c r="G20" t="n">
-        <v>223.690002441406</v>
+        <v>104.50700378418</v>
       </c>
       <c r="H20" t="n">
-        <v>104.50700378418</v>
+        <v>4.62834787368774</v>
       </c>
       <c r="I20" t="n">
-        <v>4.62834787368774</v>
-      </c>
-      <c r="J20" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1037,18 +974,15 @@
         <v>178.290832519531</v>
       </c>
       <c r="F21" t="n">
-        <v>115.342903137207</v>
+        <v>224.630004882812</v>
       </c>
       <c r="G21" t="n">
-        <v>224.630004882812</v>
+        <v>104.200996398926</v>
       </c>
       <c r="H21" t="n">
-        <v>104.200996398926</v>
+        <v>4.61010122299194</v>
       </c>
       <c r="I21" t="n">
-        <v>4.61010074615479</v>
-      </c>
-      <c r="J21" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1069,18 +1003,15 @@
         <v>177.097808837891</v>
       </c>
       <c r="F22" t="n">
-        <v>115.179504394531</v>
+        <v>222.740005493164</v>
       </c>
       <c r="G22" t="n">
-        <v>222.740005493164</v>
+        <v>103.944000244141</v>
       </c>
       <c r="H22" t="n">
-        <v>103.944000244141</v>
+        <v>4.59550333023071</v>
       </c>
       <c r="I22" t="n">
-        <v>4.59550333023071</v>
-      </c>
-      <c r="J22" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1098,21 +1029,18 @@
         <v>56.5400009155273</v>
       </c>
       <c r="E23" t="n">
-        <v>177.307495117188</v>
+        <v>177.307510375977</v>
       </c>
       <c r="F23" t="n">
-        <v>114.708473205566</v>
+        <v>222.470001220703</v>
       </c>
       <c r="G23" t="n">
-        <v>222.470001220703</v>
+        <v>103.710998535156</v>
       </c>
       <c r="H23" t="n">
-        <v>103.710998535156</v>
+        <v>4.58364248275757</v>
       </c>
       <c r="I23" t="n">
-        <v>4.58364295959473</v>
-      </c>
-      <c r="J23" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1130,21 +1058,18 @@
         <v>54.5999984741211</v>
       </c>
       <c r="E24" t="n">
-        <v>172.198547363281</v>
+        <v>172.19856262207</v>
       </c>
       <c r="F24" t="n">
-        <v>112.84593963623</v>
+        <v>219.419998168945</v>
       </c>
       <c r="G24" t="n">
-        <v>219.419998168945</v>
+        <v>103.47200012207</v>
       </c>
       <c r="H24" t="n">
-        <v>103.47200012207</v>
+        <v>4.558518409729</v>
       </c>
       <c r="I24" t="n">
-        <v>4.55851793289185</v>
-      </c>
-      <c r="J24" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1165,18 +1090,15 @@
         <v>176.449645996094</v>
       </c>
       <c r="F25" t="n">
-        <v>114.940643310547</v>
+        <v>219.820007324219</v>
       </c>
       <c r="G25" t="n">
-        <v>219.820007324219</v>
+        <v>103.297996520996</v>
       </c>
       <c r="H25" t="n">
-        <v>103.297996520996</v>
+        <v>4.54325437545776</v>
       </c>
       <c r="I25" t="n">
-        <v>4.54325437545776</v>
-      </c>
-      <c r="J25" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1194,21 +1116,18 @@
         <v>55.5999984741211</v>
       </c>
       <c r="E26" t="n">
-        <v>171.073791503906</v>
+        <v>171.073806762695</v>
       </c>
       <c r="F26" t="n">
-        <v>112.932022094727</v>
+        <v>215.889999389648</v>
       </c>
       <c r="G26" t="n">
-        <v>215.889999389648</v>
+        <v>103.151000976562</v>
       </c>
       <c r="H26" t="n">
-        <v>103.151000976562</v>
+        <v>4.53337717056274</v>
       </c>
       <c r="I26" t="n">
-        <v>4.53337717056274</v>
-      </c>
-      <c r="J26" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1229,18 +1148,15 @@
         <v>180.386215209961</v>
       </c>
       <c r="F27" t="n">
-        <v>115.113189697266</v>
+        <v>227.259994506836</v>
       </c>
       <c r="G27" t="n">
-        <v>227.259994506836</v>
+        <v>103</v>
       </c>
       <c r="H27" t="n">
-        <v>103</v>
+        <v>4.51182842254639</v>
       </c>
       <c r="I27" t="n">
-        <v>4.51182889938354</v>
-      </c>
-      <c r="J27" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1261,18 +1177,15 @@
         <v>176.567504882812</v>
       </c>
       <c r="F28" t="n">
-        <v>111.539443969727</v>
+        <v>219.520004272461</v>
       </c>
       <c r="G28" t="n">
-        <v>219.520004272461</v>
+        <v>102.910003662109</v>
       </c>
       <c r="H28" t="n">
-        <v>102.910003662109</v>
+        <v>4.49746227264404</v>
       </c>
       <c r="I28" t="n">
-        <v>4.4974627494812</v>
-      </c>
-      <c r="J28" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1293,18 +1206,15 @@
         <v>175.558441162109</v>
       </c>
       <c r="F29" t="n">
-        <v>111.6728515625</v>
+        <v>212.690002441406</v>
       </c>
       <c r="G29" t="n">
-        <v>212.690002441406</v>
+        <v>102.861999511719</v>
       </c>
       <c r="H29" t="n">
-        <v>102.861999511719</v>
+        <v>4.49252414703369</v>
       </c>
       <c r="I29" t="n">
-        <v>4.49252414703369</v>
-      </c>
-      <c r="J29" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1325,18 +1235,15 @@
         <v>184.002212524414</v>
       </c>
       <c r="F30" t="n">
-        <v>115.079444885254</v>
+        <v>226.160003662109</v>
       </c>
       <c r="G30" t="n">
-        <v>226.160003662109</v>
+        <v>102.839996337891</v>
       </c>
       <c r="H30" t="n">
-        <v>102.839996337891</v>
+        <v>4.48767280578613</v>
       </c>
       <c r="I30" t="n">
-        <v>4.48767375946045</v>
-      </c>
-      <c r="J30" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1354,21 +1261,18 @@
         <v>55.6699981689453</v>
       </c>
       <c r="E31" t="n">
-        <v>195.349456787109</v>
+        <v>195.349472045898</v>
       </c>
       <c r="F31" t="n">
-        <v>121.647529602051</v>
+        <v>236.960006713867</v>
       </c>
       <c r="G31" t="n">
-        <v>236.960006713867</v>
+        <v>102.866996765137</v>
       </c>
       <c r="H31" t="n">
-        <v>102.866996765137</v>
+        <v>4.48230981826782</v>
       </c>
       <c r="I31" t="n">
-        <v>4.48230981826782</v>
-      </c>
-      <c r="J31" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1386,21 +1290,18 @@
         <v>53.8899993896484</v>
       </c>
       <c r="E32" t="n">
-        <v>186.686721801758</v>
+        <v>186.686737060547</v>
       </c>
       <c r="F32" t="n">
-        <v>115.193504333496</v>
+        <v>224.509994506836</v>
       </c>
       <c r="G32" t="n">
-        <v>224.509994506836</v>
+        <v>102.900001525879</v>
       </c>
       <c r="H32" t="n">
-        <v>102.900001525879</v>
+        <v>4.47918081283569</v>
       </c>
       <c r="I32" t="n">
-        <v>4.47918081283569</v>
-      </c>
-      <c r="J32" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1418,21 +1319,18 @@
         <v>56.2200012207031</v>
       </c>
       <c r="E33" t="n">
-        <v>190.247024536133</v>
+        <v>190.247009277344</v>
       </c>
       <c r="F33" t="n">
-        <v>119.299354553223</v>
+        <v>231.740005493164</v>
       </c>
       <c r="G33" t="n">
-        <v>231.740005493164</v>
+        <v>102.976997375488</v>
       </c>
       <c r="H33" t="n">
-        <v>102.976997375488</v>
+        <v>4.48365068435669</v>
       </c>
       <c r="I33" t="n">
-        <v>4.48365116119385</v>
-      </c>
-      <c r="J33" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1450,21 +1348,18 @@
         <v>57.5800018310547</v>
       </c>
       <c r="E34" t="n">
-        <v>193.312301635742</v>
+        <v>193.312286376953</v>
       </c>
       <c r="F34" t="n">
-        <v>120.428047180176</v>
+        <v>240.740005493164</v>
       </c>
       <c r="G34" t="n">
-        <v>240.740005493164</v>
+        <v>103.055999755859</v>
       </c>
       <c r="H34" t="n">
-        <v>103.055999755859</v>
+        <v>4.48007440567017</v>
       </c>
       <c r="I34" t="n">
-        <v>4.48007488250732</v>
-      </c>
-      <c r="J34" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1485,18 +1380,15 @@
         <v>201.099227905273</v>
       </c>
       <c r="F35" t="n">
-        <v>124.316802978516</v>
+        <v>243.179992675781</v>
       </c>
       <c r="G35" t="n">
-        <v>243.179992675781</v>
+        <v>103.087997436523</v>
       </c>
       <c r="H35" t="n">
-        <v>103.087997436523</v>
+        <v>4.48007440567017</v>
       </c>
       <c r="I35" t="n">
-        <v>4.48007488250732</v>
-      </c>
-      <c r="J35" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1514,21 +1406,18 @@
         <v>57.2099990844727</v>
       </c>
       <c r="E36" t="n">
-        <v>207.286865234375</v>
+        <v>207.286880493164</v>
       </c>
       <c r="F36" t="n">
-        <v>126.344856262207</v>
+        <v>238.139999389648</v>
       </c>
       <c r="G36" t="n">
-        <v>238.139999389648</v>
+        <v>103.161003112793</v>
       </c>
       <c r="H36" t="n">
-        <v>103.161003112793</v>
+        <v>4.48186254501343</v>
       </c>
       <c r="I36" t="n">
-        <v>4.48186302185059</v>
-      </c>
-      <c r="J36" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1549,18 +1438,15 @@
         <v>211.29460144043</v>
       </c>
       <c r="F37" t="n">
-        <v>129.298934936523</v>
+        <v>237.919998168945</v>
       </c>
       <c r="G37" t="n">
-        <v>237.919998168945</v>
+        <v>103.208999633789</v>
       </c>
       <c r="H37" t="n">
-        <v>103.208999633789</v>
+        <v>4.48275661468506</v>
       </c>
       <c r="I37" t="n">
-        <v>4.48275661468506</v>
-      </c>
-      <c r="J37" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1578,21 +1464,18 @@
         <v>61.6500015258789</v>
       </c>
       <c r="E38" t="n">
-        <v>214.112365722656</v>
+        <v>214.112350463867</v>
       </c>
       <c r="F38" t="n">
-        <v>131.55241394043</v>
+        <v>239.119995117188</v>
       </c>
       <c r="G38" t="n">
-        <v>239.119995117188</v>
+        <v>103.278999328613</v>
       </c>
       <c r="H38" t="n">
-        <v>103.278999328613</v>
+        <v>4.48454475402832</v>
       </c>
       <c r="I38" t="n">
-        <v>4.48454475402832</v>
-      </c>
-      <c r="J38" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1613,18 +1496,15 @@
         <v>217.339477539062</v>
       </c>
       <c r="F39" t="n">
-        <v>131.587310791016</v>
+        <v>238.740005493164</v>
       </c>
       <c r="G39" t="n">
-        <v>238.740005493164</v>
+        <v>103.343002319336</v>
       </c>
       <c r="H39" t="n">
-        <v>103.343002319336</v>
+        <v>4.48543834686279</v>
       </c>
       <c r="I39" t="n">
-        <v>4.48543834686279</v>
-      </c>
-      <c r="J39" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1645,18 +1525,15 @@
         <v>213.065231323242</v>
       </c>
       <c r="F40" t="n">
-        <v>131.265899658203</v>
+        <v>235.520004272461</v>
       </c>
       <c r="G40" t="n">
-        <v>235.520004272461</v>
+        <v>103.411003112793</v>
       </c>
       <c r="H40" t="n">
-        <v>103.411003112793</v>
+        <v>4.48543834686279</v>
       </c>
       <c r="I40" t="n">
-        <v>4.48543834686279</v>
-      </c>
-      <c r="J40" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1677,18 +1554,15 @@
         <v>216.063858032227</v>
       </c>
       <c r="F41" t="n">
-        <v>132.211196899414</v>
+        <v>235.320007324219</v>
       </c>
       <c r="G41" t="n">
-        <v>235.320007324219</v>
+        <v>103.46199798584</v>
       </c>
       <c r="H41" t="n">
-        <v>103.46199798584</v>
+        <v>4.48543834686279</v>
       </c>
       <c r="I41" t="n">
-        <v>4.48543834686279</v>
-      </c>
-      <c r="J41" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1706,21 +1580,18 @@
         <v>60.3899993896484</v>
       </c>
       <c r="E42" t="n">
-        <v>218.929244995117</v>
+        <v>218.929214477539</v>
       </c>
       <c r="F42" t="n">
-        <v>133.140594482422</v>
+        <v>234.5</v>
       </c>
       <c r="G42" t="n">
-        <v>234.5</v>
+        <v>103.517997741699</v>
       </c>
       <c r="H42" t="n">
-        <v>103.517997741699</v>
+        <v>4.48597431182861</v>
       </c>
       <c r="I42" t="n">
-        <v>4.48597478866577</v>
-      </c>
-      <c r="J42" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1738,21 +1609,18 @@
         <v>59.3600006103516</v>
       </c>
       <c r="E43" t="n">
-        <v>220.290542602539</v>
+        <v>220.290512084961</v>
       </c>
       <c r="F43" t="n">
-        <v>133.829467773438</v>
+        <v>234.979995727539</v>
       </c>
       <c r="G43" t="n">
-        <v>234.979995727539</v>
+        <v>103.58699798584</v>
       </c>
       <c r="H43" t="n">
-        <v>103.58699798584</v>
+        <v>4.48597431182861</v>
       </c>
       <c r="I43" t="n">
-        <v>4.48597478866577</v>
-      </c>
-      <c r="J43" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
@@ -1770,21 +1638,18 @@
         <v>57.6699981689453</v>
       </c>
       <c r="E44" t="n">
-        <v>216.387542724609</v>
+        <v>216.387512207031</v>
       </c>
       <c r="F44" t="n">
-        <v>132.253524780273</v>
+        <v>228.839996337891</v>
       </c>
       <c r="G44" t="n">
-        <v>228.839996337891</v>
+        <v>103.644996643066</v>
       </c>
       <c r="H44" t="n">
-        <v>103.644996643066</v>
+        <v>4.48597431182861</v>
       </c>
       <c r="I44" t="n">
-        <v>4.48597478866577</v>
-      </c>
-      <c r="J44" t="n">
         <v>144.160003662109</v>
       </c>
     </row>
@@ -1802,21 +1667,18 @@
         <v>57.3899993896484</v>
       </c>
       <c r="E45" t="n">
-        <v>215.378448486328</v>
+        <v>215.378463745117</v>
       </c>
       <c r="F45" t="n">
-        <v>131.611618041992</v>
+        <v>228.009994506836</v>
       </c>
       <c r="G45" t="n">
-        <v>228.009994506836</v>
+        <v>103.707000732422</v>
       </c>
       <c r="H45" t="n">
-        <v>103.707000732422</v>
+        <v>4.48597431182861</v>
       </c>
       <c r="I45" t="n">
-        <v>4.48597478866577</v>
-      </c>
-      <c r="J45" t="n">
         <v>150.389999389648</v>
       </c>
     </row>
@@ -1834,21 +1696,18 @@
         <v>56.0900001525879</v>
       </c>
       <c r="E46" t="n">
-        <v>215.454620361328</v>
+        <v>215.454605102539</v>
       </c>
       <c r="F46" t="n">
-        <v>132.044921875</v>
+        <v>226.660003662109</v>
       </c>
       <c r="G46" t="n">
-        <v>226.660003662109</v>
+        <v>103.764999389648</v>
       </c>
       <c r="H46" t="n">
-        <v>103.764999389648</v>
+        <v>4.48642158508301</v>
       </c>
       <c r="I46" t="n">
-        <v>4.48642158508301</v>
-      </c>
-      <c r="J46" t="n">
         <v>142.190002441406</v>
       </c>
     </row>
@@ -1869,18 +1728,15 @@
         <v>217.625061035156</v>
       </c>
       <c r="F47" t="n">
-        <v>132.082580566406</v>
+        <v>228.110000610352</v>
       </c>
       <c r="G47" t="n">
-        <v>228.110000610352</v>
+        <v>103.815002441406</v>
       </c>
       <c r="H47" t="n">
-        <v>103.815002441406</v>
+        <v>4.48597431182861</v>
       </c>
       <c r="I47" t="n">
-        <v>4.48597478866577</v>
-      </c>
-      <c r="J47" t="n">
         <v>140.600006103516</v>
       </c>
     </row>
@@ -1898,21 +1754,18 @@
         <v>52.2099990844727</v>
       </c>
       <c r="E48" t="n">
-        <v>216.397048950195</v>
+        <v>216.397033691406</v>
       </c>
       <c r="F48" t="n">
-        <v>131.650375366211</v>
+        <v>223.119995117188</v>
       </c>
       <c r="G48" t="n">
-        <v>223.119995117188</v>
+        <v>103.889999389648</v>
       </c>
       <c r="H48" t="n">
-        <v>103.889999389648</v>
+        <v>4.48561716079712</v>
       </c>
       <c r="I48" t="n">
-        <v>4.48561763763428</v>
-      </c>
-      <c r="J48" t="n">
         <v>137.899993896484</v>
       </c>
     </row>
@@ -1930,21 +1783,18 @@
         <v>53</v>
       </c>
       <c r="E49" t="n">
-        <v>220.566589355469</v>
+        <v>220.56657409668</v>
       </c>
       <c r="F49" t="n">
-        <v>133.257827758789</v>
+        <v>226.259994506836</v>
       </c>
       <c r="G49" t="n">
-        <v>226.259994506836</v>
+        <v>103.948997497559</v>
       </c>
       <c r="H49" t="n">
-        <v>103.948997497559</v>
+        <v>4.48606395721436</v>
       </c>
       <c r="I49" t="n">
-        <v>4.48606395721436</v>
-      </c>
-      <c r="J49" t="n">
         <v>148.240005493164</v>
       </c>
     </row>
@@ -1962,21 +1812,18 @@
         <v>53.8400001525879</v>
       </c>
       <c r="E50" t="n">
-        <v>221.451904296875</v>
+        <v>221.451889038086</v>
       </c>
       <c r="F50" t="n">
-        <v>133.361267089844</v>
+        <v>225.490005493164</v>
       </c>
       <c r="G50" t="n">
-        <v>225.490005493164</v>
+        <v>104.000999450684</v>
       </c>
       <c r="H50" t="n">
-        <v>104.000999450684</v>
+        <v>4.48472452163696</v>
       </c>
       <c r="I50" t="n">
-        <v>4.4847240447998</v>
-      </c>
-      <c r="J50" t="n">
         <v>148.75</v>
       </c>
     </row>
@@ -1997,18 +1844,15 @@
         <v>221.099670410156</v>
       </c>
       <c r="F51" t="n">
-        <v>133.34733581543</v>
+        <v>224.169998168945</v>
       </c>
       <c r="G51" t="n">
-        <v>224.169998168945</v>
+        <v>104.064002990723</v>
       </c>
       <c r="H51" t="n">
-        <v>104.064002990723</v>
+        <v>4.48472452163696</v>
       </c>
       <c r="I51" t="n">
-        <v>4.4847240447998</v>
-      </c>
-      <c r="J51" t="n">
         <v>144.350006103516</v>
       </c>
     </row>
@@ -2026,21 +1870,18 @@
         <v>49.4099998474121</v>
       </c>
       <c r="E52" t="n">
-        <v>220.919418334961</v>
+        <v>220.91943359375</v>
       </c>
       <c r="F52" t="n">
-        <v>132.137237548828</v>
+        <v>220.770004272461</v>
       </c>
       <c r="G52" t="n">
-        <v>220.770004272461</v>
+        <v>104.138999938965</v>
       </c>
       <c r="H52" t="n">
-        <v>104.138999938965</v>
+        <v>4.48383092880249</v>
       </c>
       <c r="I52" t="n">
-        <v>4.48383140563965</v>
-      </c>
-      <c r="J52" t="n">
         <v>156.380004882812</v>
       </c>
     </row>
@@ -2058,21 +1899,18 @@
         <v>51.0800018310547</v>
       </c>
       <c r="E53" t="n">
-        <v>218.987197875977</v>
+        <v>218.987213134766</v>
       </c>
       <c r="F53" t="n">
-        <v>131.283615112305</v>
+        <v>218.669998168945</v>
       </c>
       <c r="G53" t="n">
-        <v>218.669998168945</v>
+        <v>104.182998657227</v>
       </c>
       <c r="H53" t="n">
-        <v>104.182998657227</v>
+        <v>4.48427772521973</v>
       </c>
       <c r="I53" t="n">
-        <v>4.48427772521973</v>
-      </c>
-      <c r="J53" t="n">
         <v>156.029998779297</v>
       </c>
     </row>
@@ -2093,18 +1931,15 @@
         <v>216.674255371094</v>
       </c>
       <c r="F54" t="n">
-        <v>130.907653808594</v>
+        <v>218.860000610352</v>
       </c>
       <c r="G54" t="n">
-        <v>218.860000610352</v>
+        <v>104.251998901367</v>
       </c>
       <c r="H54" t="n">
-        <v>104.251998901367</v>
+        <v>4.48356533050537</v>
       </c>
       <c r="I54" t="n">
-        <v>4.48356485366821</v>
-      </c>
-      <c r="J54" t="n">
         <v>159.490005493164</v>
       </c>
     </row>
@@ -2125,18 +1960,15 @@
         <v>217.98779296875</v>
       </c>
       <c r="F55" t="n">
-        <v>130.795394897461</v>
+        <v>219.160003662109</v>
       </c>
       <c r="G55" t="n">
-        <v>219.160003662109</v>
+        <v>104.292999267578</v>
       </c>
       <c r="H55" t="n">
-        <v>104.292999267578</v>
+        <v>4.48311996459961</v>
       </c>
       <c r="I55" t="n">
-        <v>4.48312091827393</v>
-      </c>
-      <c r="J55" t="n">
         <v>161.990005493164</v>
       </c>
     </row>
@@ -2157,18 +1989,15 @@
         <v>216.131729125977</v>
       </c>
       <c r="F56" t="n">
-        <v>129.110626220703</v>
+        <v>215.339996337891</v>
       </c>
       <c r="G56" t="n">
-        <v>215.339996337891</v>
+        <v>104.369003295898</v>
       </c>
       <c r="H56" t="n">
-        <v>104.369003295898</v>
+        <v>4.48178672790527</v>
       </c>
       <c r="I56" t="n">
-        <v>4.48178625106812</v>
-      </c>
-      <c r="J56" t="n">
         <v>153.800003051758</v>
       </c>
     </row>
@@ -2186,21 +2015,18 @@
         <v>48.6599998474121</v>
       </c>
       <c r="E57" t="n">
-        <v>213.904418945312</v>
+        <v>213.904434204102</v>
       </c>
       <c r="F57" t="n">
-        <v>127.350761413574</v>
+        <v>210.589996337891</v>
       </c>
       <c r="G57" t="n">
-        <v>210.589996337891</v>
+        <v>104.431999206543</v>
       </c>
       <c r="H57" t="n">
-        <v>104.431999206543</v>
+        <v>4.48134183883667</v>
       </c>
       <c r="I57" t="n">
-        <v>4.48134231567383</v>
-      </c>
-      <c r="J57" t="n">
         <v>151.169998168945</v>
       </c>
     </row>
@@ -2218,21 +2044,18 @@
         <v>47.5999984741211</v>
       </c>
       <c r="E58" t="n">
-        <v>213.069625854492</v>
+        <v>213.069641113281</v>
       </c>
       <c r="F58" t="n">
-        <v>126.930480957031</v>
+        <v>209.520004272461</v>
       </c>
       <c r="G58" t="n">
-        <v>209.520004272461</v>
+        <v>104.49299621582</v>
       </c>
       <c r="H58" t="n">
-        <v>104.49299621582</v>
+        <v>4.48223066329956</v>
       </c>
       <c r="I58" t="n">
-        <v>4.48223114013672</v>
-      </c>
-      <c r="J58" t="n">
         <v>150.850006103516</v>
       </c>
     </row>
@@ -2250,21 +2073,18 @@
         <v>44.9700012207031</v>
       </c>
       <c r="E59" t="n">
-        <v>213.069625854492</v>
+        <v>213.069641113281</v>
       </c>
       <c r="F59" t="n">
-        <v>122.214134216309</v>
+        <v>208.429992675781</v>
       </c>
       <c r="G59" t="n">
-        <v>208.429992675781</v>
+        <v>104.589996337891</v>
       </c>
       <c r="H59" t="n">
-        <v>104.589996337891</v>
+        <v>4.48356533050537</v>
       </c>
       <c r="I59" t="n">
-        <v>4.48356485366821</v>
-      </c>
-      <c r="J59" t="n">
         <v>142.190002441406</v>
       </c>
     </row>
@@ -2282,21 +2102,18 @@
         <v>48.7999992370605</v>
       </c>
       <c r="E60" t="n">
-        <v>216.151138305664</v>
+        <v>216.151123046875</v>
       </c>
       <c r="F60" t="n">
-        <v>129.960327148438</v>
+        <v>220.589996337891</v>
       </c>
       <c r="G60" t="n">
-        <v>220.589996337891</v>
+        <v>104.599998474121</v>
       </c>
       <c r="H60" t="n">
-        <v>104.599998474121</v>
+        <v>4.46038675308228</v>
       </c>
       <c r="I60" t="n">
-        <v>4.46038675308228</v>
-      </c>
-      <c r="J60" t="n">
         <v>140.130004882812</v>
       </c>
     </row>
@@ -2314,21 +2131,18 @@
         <v>53.5999984741211</v>
       </c>
       <c r="E61" t="n">
-        <v>217.73942565918</v>
+        <v>217.739440917969</v>
       </c>
       <c r="F61" t="n">
-        <v>131.311676025391</v>
+        <v>223.559997558594</v>
       </c>
       <c r="G61" t="n">
-        <v>223.559997558594</v>
+        <v>104.652000427246</v>
       </c>
       <c r="H61" t="n">
-        <v>104.652000427246</v>
+        <v>4.45068883895874</v>
       </c>
       <c r="I61" t="n">
-        <v>4.45068883895874</v>
-      </c>
-      <c r="J61" t="n">
         <v>138.929992675781</v>
       </c>
     </row>
@@ -2349,18 +2163,15 @@
         <v>212.394378662109</v>
       </c>
       <c r="F62" t="n">
-        <v>129.932418823242</v>
+        <v>219.190002441406</v>
       </c>
       <c r="G62" t="n">
-        <v>219.190002441406</v>
+        <v>104.707000732422</v>
       </c>
       <c r="H62" t="n">
-        <v>104.707000732422</v>
+        <v>4.44451665878296</v>
       </c>
       <c r="I62" t="n">
-        <v>4.44451665878296</v>
-      </c>
-      <c r="J62" t="n">
         <v>131.119995117188</v>
       </c>
     </row>
@@ -2381,18 +2192,15 @@
         <v>214.144348144531</v>
       </c>
       <c r="F63" t="n">
-        <v>130.013656616211</v>
+        <v>219.740005493164</v>
       </c>
       <c r="G63" t="n">
-        <v>219.740005493164</v>
+        <v>104.773002624512</v>
       </c>
       <c r="H63" t="n">
-        <v>104.773002624512</v>
+        <v>4.43746376037598</v>
       </c>
       <c r="I63" t="n">
-        <v>4.43746376037598</v>
-      </c>
-      <c r="J63" t="n">
         <v>128.970001220703</v>
       </c>
     </row>
@@ -2410,21 +2218,18 @@
         <v>51.2799987792969</v>
       </c>
       <c r="E64" t="n">
-        <v>216.630447387695</v>
+        <v>216.630462646484</v>
       </c>
       <c r="F64" t="n">
-        <v>130.404113769531</v>
+        <v>221.369995117188</v>
       </c>
       <c r="G64" t="n">
-        <v>221.369995117188</v>
+        <v>104.830001831055</v>
       </c>
       <c r="H64" t="n">
-        <v>104.830001831055</v>
+        <v>4.43349599838257</v>
       </c>
       <c r="I64" t="n">
-        <v>4.43349695205688</v>
-      </c>
-      <c r="J64" t="n">
         <v>131.610000610352</v>
       </c>
     </row>
@@ -2445,18 +2250,15 @@
         <v>218.850158691406</v>
       </c>
       <c r="F65" t="n">
-        <v>130.63655090332</v>
+        <v>222.179992675781</v>
       </c>
       <c r="G65" t="n">
-        <v>222.179992675781</v>
+        <v>104.890998840332</v>
       </c>
       <c r="H65" t="n">
-        <v>104.890998840332</v>
+        <v>4.42203426361084</v>
       </c>
       <c r="I65" t="n">
-        <v>4.422034740448</v>
-      </c>
-      <c r="J65" t="n">
         <v>130.729995727539</v>
       </c>
     </row>
@@ -2474,21 +2276,18 @@
         <v>50.4799995422363</v>
       </c>
       <c r="E66" t="n">
-        <v>219.846160888672</v>
+        <v>219.846145629883</v>
       </c>
       <c r="F66" t="n">
-        <v>131.766647338867</v>
+        <v>223.380004882812</v>
       </c>
       <c r="G66" t="n">
-        <v>223.380004882812</v>
+        <v>104.945999145508</v>
       </c>
       <c r="H66" t="n">
-        <v>104.945999145508</v>
+        <v>4.41604995727539</v>
       </c>
       <c r="I66" t="n">
-        <v>4.41604900360107</v>
-      </c>
-      <c r="J66" t="n">
         <v>135.070007324219</v>
       </c>
     </row>
@@ -2509,18 +2308,15 @@
         <v>215.444702148438</v>
       </c>
       <c r="F67" t="n">
-        <v>130.987503051758</v>
+        <v>220.440002441406</v>
       </c>
       <c r="G67" t="n">
-        <v>220.440002441406</v>
+        <v>104.999000549316</v>
       </c>
       <c r="H67" t="n">
-        <v>104.999000549316</v>
+        <v>4.40603160858154</v>
       </c>
       <c r="I67" t="n">
-        <v>4.40603256225586</v>
-      </c>
-      <c r="J67" t="n">
         <v>124.610000610352</v>
       </c>
     </row>
@@ -2538,21 +2334,18 @@
         <v>49.3300018310547</v>
       </c>
       <c r="E68" t="n">
-        <v>212.039260864258</v>
+        <v>212.03923034668</v>
       </c>
       <c r="F68" t="n">
-        <v>129.104415893555</v>
+        <v>214.289993286133</v>
       </c>
       <c r="G68" t="n">
-        <v>214.289993286133</v>
+        <v>105.055000305176</v>
       </c>
       <c r="H68" t="n">
-        <v>105.055000305176</v>
+        <v>4.39906311035156</v>
       </c>
       <c r="I68" t="n">
-        <v>4.39906358718872</v>
-      </c>
-      <c r="J68" t="n">
         <v>120.5</v>
       </c>
     </row>
@@ -2573,18 +2366,15 @@
         <v>207.846450805664</v>
       </c>
       <c r="F69" t="n">
-        <v>127.03840637207</v>
+        <v>209.619995117188</v>
       </c>
       <c r="G69" t="n">
-        <v>209.619995117188</v>
+        <v>105.09400177002</v>
       </c>
       <c r="H69" t="n">
-        <v>105.09400177002</v>
+        <v>4.38686752319336</v>
       </c>
       <c r="I69" t="n">
-        <v>4.38686752319336</v>
-      </c>
-      <c r="J69" t="n">
         <v>113.379997253418</v>
       </c>
     </row>
@@ -2602,21 +2392,18 @@
         <v>47.5499992370605</v>
       </c>
       <c r="E70" t="n">
-        <v>205.437286376953</v>
+        <v>205.437271118164</v>
       </c>
       <c r="F70" t="n">
-        <v>127.352973937988</v>
+        <v>209.630004882812</v>
       </c>
       <c r="G70" t="n">
-        <v>209.630004882812</v>
+        <v>105.147003173828</v>
       </c>
       <c r="H70" t="n">
-        <v>105.147003173828</v>
+        <v>4.37685012817383</v>
       </c>
       <c r="I70" t="n">
-        <v>4.37685012817383</v>
-      </c>
-      <c r="J70" t="n">
         <v>111.379997253418</v>
       </c>
     </row>
@@ -2637,18 +2424,15 @@
         <v>205.550674438477</v>
       </c>
       <c r="F71" t="n">
-        <v>126.649780273438</v>
+        <v>208.610000610352</v>
       </c>
       <c r="G71" t="n">
-        <v>208.610000610352</v>
+        <v>105.200996398926</v>
       </c>
       <c r="H71" t="n">
-        <v>105.200996398926</v>
+        <v>4.36857461929321</v>
       </c>
       <c r="I71" t="n">
-        <v>4.36857461929321</v>
-      </c>
-      <c r="J71" t="n">
         <v>112.220001220703</v>
       </c>
     </row>
@@ -2694,40 +2478,34 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45645</v>
+        <v>45649</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0236028266154232</v>
+        <v>-0.0217037573353061</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0156228374222485</v>
+        <v>-0.0163080662132542</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0503802870544711</v>
+        <v>-0.0521027321490013</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0142663244257257</v>
+        <v>-0.0159325085780041</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0140989361092888</v>
+        <v>-0.014354074538581</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0120264169958136</v>
+        <v>0.00241722637607533</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00205372378351076</v>
+        <v>0.00331026109190491</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00300930217518869</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.00876437021565735</v>
+        <v>-0.00362097225541136</v>
       </c>
     </row>
     <row r="3">
@@ -2747,18 +2525,15 @@
         <v>0.0261796871299396</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0182868044090165</v>
+        <v>0.0178125430958882</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0178125430958882</v>
+        <v>0.00228613606731098</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00228613606731098</v>
+        <v>0.0038264130244392</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0038264130244392</v>
-      </c>
-      <c r="J3" t="n">
         <v>-0.00205313514764616</v>
       </c>
     </row>
@@ -2779,18 +2554,15 @@
         <v>-0.0160195151050253</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.00455089576705958</v>
+        <v>-0.00852584592227135</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.00852584592227135</v>
+        <v>0.002739954157575</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002739954157575</v>
+        <v>0.00353676715197149</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00353676715197149</v>
-      </c>
-      <c r="J4" t="n">
         <v>0.0687702893310422</v>
       </c>
     </row>
@@ -2811,18 +2583,15 @@
         <v>0.0161731973459904</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0125091079000756</v>
+        <v>0.0141609617857119</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0141609617857119</v>
+        <v>0.00289435641031321</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00289435641031321</v>
+        <v>0.00426843030082247</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00426843030082247</v>
-      </c>
-      <c r="J5" t="n">
         <v>0.0436495154095737</v>
       </c>
     </row>
@@ -2843,18 +2612,15 @@
         <v>0.00242929483768317</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00193027014203873</v>
+        <v>-0.00465448665941404</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.00465448665941404</v>
+        <v>0.00312400282867187</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00312400282867187</v>
+        <v>0.00508602943994529</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00508602943994529</v>
-      </c>
-      <c r="J6" t="n">
         <v>0.0115831903757149</v>
       </c>
     </row>
@@ -2875,18 +2641,15 @@
         <v>0.0257854273424174</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0167648264796132</v>
+        <v>0.0181509877965156</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0181509877965156</v>
+        <v>0.00298582179353901</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00298582179353901</v>
+        <v>0.00511212764216307</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00511212764216307</v>
-      </c>
-      <c r="J7" t="n">
         <v>0.0297232611933334</v>
       </c>
     </row>
@@ -2907,18 +2670,15 @@
         <v>0.00266153595174723</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00821617389387419</v>
+        <v>-0.0067054920256413</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0067054920256413</v>
+        <v>0.00280014975495613</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00280014975495613</v>
+        <v>0.00374972202654766</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00374972202654766</v>
-      </c>
-      <c r="J8" t="n">
         <v>0.0110463005734909</v>
       </c>
     </row>
@@ -2939,18 +2699,15 @@
         <v>-0.00226080100615711</v>
       </c>
       <c r="F9" t="n">
-        <v>0.000819361582668821</v>
+        <v>-0.00398068871273427</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.00398068871273427</v>
+        <v>0.0033287080644151</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0033287080644151</v>
+        <v>0.00475903209349093</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00475903209349093</v>
-      </c>
-      <c r="J9" t="n">
         <v>-0.000578484893334896</v>
       </c>
     </row>
@@ -2971,18 +2728,15 @@
         <v>-0.016152050631842</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.010620120924057</v>
+        <v>-0.00545464955428809</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.00545464955428809</v>
+        <v>0.0029945558045994</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0029945558045994</v>
+        <v>0.00438165987690797</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00438165987690797</v>
-      </c>
-      <c r="J10" t="n">
         <v>0.046674741860208</v>
       </c>
     </row>
@@ -3003,18 +2757,15 @@
         <v>0.0113334914764978</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0133345164258647</v>
+        <v>0.0089654444736107</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0089654444736107</v>
+        <v>0.00367761105257358</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00367761105257358</v>
+        <v>0.00380553402985484</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00380553402985484</v>
-      </c>
-      <c r="J11" t="n">
         <v>0.0857392976559832</v>
       </c>
     </row>
@@ -3035,18 +2786,15 @@
         <v>-0.0143695747821689</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.00889743283001398</v>
+        <v>-0.00512210736899721</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.00512210736899721</v>
+        <v>0.00303347190674153</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00303347190674153</v>
+        <v>0.00410875600950855</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00410875600950855</v>
-      </c>
-      <c r="J12" t="n">
         <v>0.22077309766982</v>
       </c>
     </row>
@@ -3067,18 +2815,15 @@
         <v>-0.00532086851075886</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.00306440866502777</v>
+        <v>-0.00723300864370424</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.00723300864370424</v>
+        <v>0.00336296234819522</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00336296234819522</v>
+        <v>0.00392857887302034</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00392857887302034</v>
-      </c>
-      <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3099,18 +2844,15 @@
         <v>0.0398697242630734</v>
       </c>
       <c r="F14" t="n">
-        <v>0.027503384290311</v>
+        <v>0.024199701400982</v>
       </c>
       <c r="G14" t="n">
-        <v>0.024199701400982</v>
+        <v>0.00324199649865231</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00324199649865231</v>
+        <v>0.00473648285966322</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00473648285966322</v>
-      </c>
-      <c r="J14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3131,18 +2873,15 @@
         <v>0.0334714637279805</v>
       </c>
       <c r="F15" t="n">
-        <v>0.025063333038315</v>
+        <v>0.0268313676970646</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0268313676970646</v>
+        <v>0.00338535895020686</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00338535895020686</v>
+        <v>0.00535717774458178</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00535717774458178</v>
-      </c>
-      <c r="J15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3163,18 +2902,15 @@
         <v>0.00719337701434397</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0056008909701073</v>
+        <v>0.00161620847553312</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00161620847553312</v>
+        <v>0.00285448424911183</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00285448424911183</v>
+        <v>0.00448436831283661</v>
       </c>
       <c r="I16" t="n">
-        <v>0.00448436831283661</v>
-      </c>
-      <c r="J16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3195,18 +2931,15 @@
         <v>-0.0310676066700709</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0100590270415494</v>
+        <v>-0.0343351339376202</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0343351339376202</v>
+        <v>0.00325378168827761</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00325378168827761</v>
+        <v>0.00410899658395314</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00410899658395314</v>
-      </c>
-      <c r="J17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3227,18 +2960,15 @@
         <v>0.00450479603545539</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.000667131776885599</v>
+        <v>-0.00262402304053333</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.00262402304053333</v>
+        <v>0.0032166233275972</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0032166233275972</v>
+        <v>0.00451327110517807</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00451327110517807</v>
-      </c>
-      <c r="J18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3259,18 +2989,15 @@
         <v>-0.00232835947167109</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00866495909657417</v>
+        <v>0.0051857644483384</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0051857644483384</v>
+        <v>0.00251650941433401</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00251650941433401</v>
+        <v>0.00453383656408812</v>
       </c>
       <c r="I19" t="n">
-        <v>0.00453383656408812</v>
-      </c>
-      <c r="J19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3291,18 +3018,15 @@
         <v>-0.0045814666102042</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.00346416328636467</v>
+        <v>-0.00418466999498412</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.00418466999498412</v>
+        <v>0.00293670306263083</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00293670306263083</v>
+        <v>0.00395797181302648</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00395807565554374</v>
-      </c>
-      <c r="J20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3323,18 +3047,15 @@
         <v>0.0067365242374775</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00141864425910421</v>
+        <v>0.0084852264660038</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0084852264660038</v>
+        <v>0.00247244818538372</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00247244818538372</v>
+        <v>0.00317656015287837</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00317645639119557</v>
-      </c>
-      <c r="J21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3352,21 +3073,18 @@
         <v>0.0279447822917087</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.00118261373642603</v>
+        <v>-0.0011826996929869</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00410633300053354</v>
+        <v>0.00121366598183759</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00121366598183759</v>
+        <v>0.00224664415804843</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00224664415804843</v>
+        <v>0.00258764672806877</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00258754242870496</v>
-      </c>
-      <c r="J22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,21 +3102,18 @@
         <v>0.035531181238508</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0296689364233025</v>
+        <v>0.0296689337942908</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0165051004523511</v>
+        <v>0.0139002965874124</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0139002965874124</v>
+        <v>0.00230978827899309</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00230978827899309</v>
+        <v>0.00551145586577939</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0055116656493972</v>
-      </c>
-      <c r="J23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3416,21 +3131,18 @@
         <v>-0.0284697912294952</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.0240924180312984</v>
+        <v>-0.0240923315545646</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.018224220902061</v>
+        <v>-0.00181971222793864</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.00181971222793864</v>
+        <v>0.00168448185767911</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00168448185767911</v>
+        <v>0.0033597137667869</v>
       </c>
       <c r="I24" t="n">
-        <v>0.00335960881180997</v>
-      </c>
-      <c r="J24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3448,21 +3160,18 @@
         <v>0.0107914083684306</v>
       </c>
       <c r="E25" t="n">
-        <v>0.031424185112918</v>
+        <v>0.0314240931158767</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0177861086569007</v>
+        <v>0.0182037516590903</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0182037516590903</v>
+        <v>0.0014250520406196</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0014250520406196</v>
+        <v>0.00217877412873491</v>
       </c>
       <c r="I25" t="n">
-        <v>0.00217877412873491</v>
-      </c>
-      <c r="J25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3480,21 +3189,18 @@
         <v>-0.00394126158914188</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.0516249187623093</v>
+        <v>-0.0516248341727578</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0189480250549505</v>
+        <v>-0.0500307814486262</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.0500307814486262</v>
+        <v>0.00146602889866498</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00146602889866498</v>
+        <v>0.00477605662233849</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00477595043157408</v>
-      </c>
-      <c r="J26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3515,18 +3221,15 @@
         <v>0.021627480830535</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0320401967263619</v>
+        <v>0.0352587011831886</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0352587011831886</v>
+        <v>0.000874514961500816</v>
       </c>
       <c r="H27" t="n">
-        <v>0.000874514961500816</v>
+        <v>0.00319427913597559</v>
       </c>
       <c r="I27" t="n">
-        <v>0.00319427879730649</v>
-      </c>
-      <c r="J27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3547,18 +3250,15 @@
         <v>0.00574773684491392</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.00119462869360665</v>
+        <v>0.0321124723901223</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0321124723901223</v>
+        <v>0.000466684982000087</v>
       </c>
       <c r="H28" t="n">
-        <v>0.000466684982000087</v>
+        <v>0.00109918732737624</v>
       </c>
       <c r="I28" t="n">
-        <v>0.00109929346752002</v>
-      </c>
-      <c r="J28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3579,18 +3279,15 @@
         <v>-0.0458895099491499</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.0296021007587466</v>
+        <v>-0.0595596082534017</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.0595596082534017</v>
+        <v>0.000213955412404321</v>
       </c>
       <c r="H29" t="n">
-        <v>0.000213955412404321</v>
+        <v>0.00108103720068531</v>
       </c>
       <c r="I29" t="n">
-        <v>0.00108082446122948</v>
-      </c>
-      <c r="J29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3608,21 +3305,18 @@
         <v>-0.0229926140003163</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.0580868994944863</v>
+        <v>-0.0580869730675201</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0539927505168682</v>
+        <v>-0.0455773242140349</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.0455773242140349</v>
+        <v>-0.000262479007798189</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.000262479007798189</v>
+        <v>0.00119647854248117</v>
       </c>
       <c r="I30" t="n">
-        <v>0.00119669130651467</v>
-      </c>
-      <c r="J30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3640,21 +3334,18 @@
         <v>0.0330302245213754</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0464025234454033</v>
+        <v>0.0464025196527058</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0560276840773042</v>
+        <v>0.0554541557687855</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0554541557687855</v>
+        <v>-0.000320745969414671</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.000320745969414671</v>
+        <v>0.000698566448392057</v>
       </c>
       <c r="I31" t="n">
-        <v>0.000698566448392057</v>
-      </c>
-      <c r="J31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3672,21 +3363,18 @@
         <v>-0.0414443575322559</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.0187141046912868</v>
+        <v>-0.0187139457819633</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.0344163657473505</v>
+        <v>-0.0311988038963837</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.0311988038963837</v>
+        <v>-0.000747699501555843</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.000747699501555843</v>
+        <v>-0.000996926798198516</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.000997033042366313</v>
-      </c>
-      <c r="J32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3704,21 +3392,18 @@
         <v>-0.0236193221101648</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.015856606504977</v>
+        <v>-0.0158566077565923</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.00937234019301547</v>
+        <v>-0.0373847295615167</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.0373847295615167</v>
+        <v>-0.000766596613086534</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.000766596613086534</v>
+        <v>0.000798263234645713</v>
       </c>
       <c r="I33" t="n">
-        <v>0.000798263149682343</v>
-      </c>
-      <c r="J33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,21 +3421,18 @@
         <v>-0.0409726690033487</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.038721810872388</v>
+        <v>-0.0387218867493032</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.0312810151577972</v>
+        <v>-0.0100336674730898</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.0100336674730898</v>
+        <v>-0.000310391912344277</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.000310391912344277</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3768,21 +3450,18 @@
         <v>0.0494669092176716</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.029850600143455</v>
+        <v>-0.0298506715580328</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.0160517281327427</v>
+        <v>0.0211639930253225</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0211639930253225</v>
+        <v>-0.000707686762115967</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.000707686762115967</v>
+        <v>-0.000398972374833551</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.000398972332385839</v>
-      </c>
-      <c r="J35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3800,21 +3479,18 @@
         <v>-0.00986500011883795</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.0189675277017647</v>
+        <v>-0.0189674554860576</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.0228468910108707</v>
+        <v>0.000924685702741623</v>
       </c>
       <c r="G36" t="n">
-        <v>0.000924685702741623</v>
+        <v>-0.000465042013452321</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.000465042013452321</v>
+        <v>-0.000199446400614756</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.000199340029201078</v>
-      </c>
-      <c r="J36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3832,21 +3508,18 @@
         <v>-0.0627737656252533</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.0131602127355711</v>
+        <v>-0.0131601424080999</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.0171298947423852</v>
+        <v>-0.00501838814296607</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.00501838814296607</v>
+        <v>-0.000677772783230557</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.000677772783230557</v>
+        <v>-0.000398733749207292</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.000398733749207292</v>
-      </c>
-      <c r="J37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3864,21 +3537,18 @@
         <v>0.0533060449624618</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.0148482542285777</v>
+        <v>-0.014848324435745</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.000265199207857947</v>
+        <v>0.00159164620625063</v>
       </c>
       <c r="G38" t="n">
-        <v>0.00159164620625063</v>
+        <v>-0.000619325830353623</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.000619325830353623</v>
+        <v>-0.000199220848748904</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.000199220848748904</v>
-      </c>
-      <c r="J38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3899,18 +3569,15 @@
         <v>0.0200607400338155</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00244855010821099</v>
+        <v>0.0136718799349973</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0136718799349973</v>
+        <v>-0.00065757793087895</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.00065757793087895</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3931,18 +3598,15 @@
         <v>-0.0138784280549925</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.00714990305949748</v>
+        <v>0.000849893515287192</v>
       </c>
       <c r="G40" t="n">
-        <v>0.000849893515287192</v>
+        <v>-0.000492885059631742</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.000492885059631742</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3960,21 +3624,18 @@
         <v>-0.043384649087012</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.01308818729519</v>
+        <v>-0.0130880497248871</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.00698057257909057</v>
+        <v>0.00349683293909919</v>
       </c>
       <c r="G41" t="n">
-        <v>0.00349683293909919</v>
+        <v>-0.00054096637378076</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.00054096637378076</v>
+        <v>-0.000119475709971617</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.000119581992376272</v>
-      </c>
-      <c r="J41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3992,21 +3653,18 @@
         <v>0.0173517312787437</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.0061795553787255</v>
+        <v>-0.00617955623479982</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.00514739617870885</v>
+        <v>-0.00204270889550795</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.00204270889550795</v>
+        <v>-0.00066610912066456</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.00066610912066456</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4024,21 +3682,18 @@
         <v>0.0293047077347801</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0180370821202815</v>
+        <v>0.0180370846640885</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0119160755509717</v>
+        <v>0.0268309713682329</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0268309713682329</v>
+        <v>-0.00055958955188451</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.00055958955188451</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
         <v>0.0371809133892271</v>
       </c>
     </row>
@@ -4056,21 +3711,18 @@
         <v>0.00487887754442773</v>
       </c>
       <c r="E44" t="n">
-        <v>0.00468521453921289</v>
+        <v>0.00468500166807861</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0048772801963155</v>
+        <v>0.00364019933797155</v>
       </c>
       <c r="G44" t="n">
-        <v>0.00364019933797155</v>
+        <v>-0.000597877567739546</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.000597877567739546</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
         <v>-0.0414255984628182</v>
       </c>
     </row>
@@ -4088,21 +3740,18 @@
         <v>0.0231770232398647</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.000353540225186411</v>
+        <v>-0.000353398607496169</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.00328148804857487</v>
+        <v>0.00595601704277327</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00595601704277327</v>
+        <v>-0.000558942394523365</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.000558942394523365</v>
+        <v>-0.0000996948784041107</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.0000995885938855912</v>
-      </c>
-      <c r="J45" t="n">
         <v>0.0576692932516212</v>
       </c>
     </row>
@@ -4120,21 +3769,18 @@
         <v>0.025974063127904</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.00997330299876398</v>
+        <v>-0.00997337311380031</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.000285114745977588</v>
+        <v>-0.0063565689551639</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.0063565689551639</v>
+        <v>-0.000481655354061528</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.000481655354061528</v>
+        <v>0.000099704818463886</v>
       </c>
       <c r="I46" t="n">
-        <v>0.000099598512761423</v>
-      </c>
-      <c r="J46" t="n">
         <v>0.0113086505609394</v>
       </c>
     </row>
@@ -4152,21 +3798,18 @@
         <v>0.0471173937485141</v>
       </c>
       <c r="E47" t="n">
-        <v>0.00567480975788892</v>
+        <v>0.00567488067096722</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0032829773480938</v>
+        <v>0.022364671936028</v>
       </c>
       <c r="G47" t="n">
-        <v>0.022364671936028</v>
+        <v>-0.000721888041994356</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.000721888041994356</v>
+        <v>0.0000796213806688595</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0000796213722047412</v>
-      </c>
-      <c r="J47" t="n">
         <v>0.0195794947536982</v>
       </c>
     </row>
@@ -4184,21 +3827,18 @@
         <v>-0.0149056776514593</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.0189037714980202</v>
+        <v>-0.0189037728057826</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.0120627239661132</v>
+        <v>-0.0138778372928563</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.0138778372928563</v>
+        <v>-0.000567567839329541</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.000567567839329541</v>
+        <v>-0.0000995965330627957</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.000099490240071276</v>
-      </c>
-      <c r="J48" t="n">
         <v>-0.0697518295569445</v>
       </c>
     </row>
@@ -4216,21 +3856,18 @@
         <v>-0.0156017858508033</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.00399777524703249</v>
+        <v>-0.00399777552249281</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.000775632485442768</v>
+        <v>0.00341473677286874</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00341473677286874</v>
+        <v>-0.000500013974862434</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.000500013974862434</v>
+        <v>0.000298666188063512</v>
       </c>
       <c r="I49" t="n">
-        <v>0.000298772544568227</v>
-      </c>
-      <c r="J49" t="n">
         <v>-0.00342853449973735</v>
       </c>
     </row>
@@ -4248,21 +3885,18 @@
         <v>0.0255238124302455</v>
       </c>
       <c r="E50" t="n">
-        <v>0.00159310000808843</v>
+        <v>0.00159303099491881</v>
       </c>
       <c r="F50" t="n">
-        <v>0.000104473586433951</v>
+        <v>0.00588842099746079</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00588842099746079</v>
+        <v>-0.000605430679470165</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.000605430679470165</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
         <v>0.0304814250809873</v>
       </c>
     </row>
@@ -4280,21 +3914,18 @@
         <v>0.0625379510651776</v>
       </c>
       <c r="E51" t="n">
-        <v>0.000815917752064799</v>
+        <v>0.000815848626235738</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00915788985034904</v>
+        <v>0.0154006152588027</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0154006152588027</v>
+        <v>-0.000720161978568501</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.000720161978568501</v>
+        <v>0.000199292267853535</v>
       </c>
       <c r="I51" t="n">
-        <v>0.000199079554827453</v>
-      </c>
-      <c r="J51" t="n">
         <v>-0.0769279856993985</v>
       </c>
     </row>
@@ -4312,21 +3943,18 @@
         <v>-0.0326938512877515</v>
       </c>
       <c r="E52" t="n">
-        <v>0.00882344026374859</v>
+        <v>0.00882343964894106</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0065021246999728</v>
+        <v>0.00960354013399289</v>
       </c>
       <c r="G52" t="n">
-        <v>0.00960354013399289</v>
+        <v>-0.000422321480748278</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.000422321480748278</v>
+        <v>-0.0000996362055640798</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.0000995298702326508</v>
-      </c>
-      <c r="J52" t="n">
         <v>0.002243197502108</v>
       </c>
     </row>
@@ -4344,21 +3972,18 @@
         <v>-0.0133281557003639</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0106747453725939</v>
+        <v>0.0106748157953076</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00287195815349839</v>
+        <v>-0.00086814603342944</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.00086814603342944</v>
+        <v>-0.000661860154891669</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.000661860154891669</v>
+        <v>0.000158890227272668</v>
       </c>
       <c r="I53" t="n">
-        <v>0.000158996596409278</v>
-      </c>
-      <c r="J53" t="n">
         <v>-0.0216941914521126</v>
       </c>
     </row>
@@ -4379,18 +4004,15 @@
         <v>-0.0060257392387314</v>
       </c>
       <c r="F54" t="n">
-        <v>0.000858278773658849</v>
+        <v>-0.00136887683311204</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.00136887683311204</v>
+        <v>-0.00039312673428582</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.00039312673428582</v>
+        <v>0.0000993428481232961</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0000990237386810922</v>
-      </c>
-      <c r="J54" t="n">
         <v>-0.0154330508995847</v>
       </c>
     </row>
@@ -4411,18 +4033,15 @@
         <v>0.00858765092140445</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0130490318734715</v>
+        <v>0.0177394231874359</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0177394231874359</v>
+        <v>-0.000728224146251844</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.000728224146251844</v>
+        <v>0.000297478834955456</v>
       </c>
       <c r="I55" t="n">
-        <v>0.000297798049938791</v>
-      </c>
-      <c r="J55" t="n">
         <v>0.0532509901098643</v>
       </c>
     </row>
@@ -4440,21 +4059,18 @@
         <v>-0.000822049232486188</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0104126422055522</v>
+        <v>0.0104125701281619</v>
       </c>
       <c r="F56" t="n">
-        <v>0.013819036396757</v>
+        <v>0.0225556772999731</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0225556772999731</v>
+        <v>-0.000603224214064335</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.000603224214064335</v>
+        <v>0.0000992758608031608</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0000990630402712966</v>
-      </c>
-      <c r="J56" t="n">
         <v>0.0173976643161247</v>
       </c>
     </row>
@@ -4472,21 +4088,18 @@
         <v>0.022268937127536</v>
       </c>
       <c r="E57" t="n">
-        <v>0.00391793568638632</v>
+        <v>0.00391793540580698</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00331110741387053</v>
+        <v>0.00510687306037982</v>
       </c>
       <c r="G57" t="n">
-        <v>0.00510687306037982</v>
+        <v>-0.000583742561571898</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.000583742561571898</v>
+        <v>-0.000198299581092187</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.000198299559996284</v>
-      </c>
-      <c r="J57" t="n">
         <v>0.00212125987724598</v>
       </c>
     </row>
@@ -4507,18 +4120,15 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0385908452485137</v>
+        <v>0.00522962929992143</v>
       </c>
       <c r="G58" t="n">
-        <v>0.00522962929992143</v>
+        <v>-0.000927432120342964</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.000927432120342964</v>
+        <v>-0.000297679883625168</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.000297467210807256</v>
-      </c>
-      <c r="J58" t="n">
         <v>0.0609044483677956</v>
       </c>
     </row>
@@ -4536,21 +4146,18 @@
         <v>-0.078483567135976</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.014256286019712</v>
+        <v>-0.0142561458398044</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.0596042892634565</v>
+        <v>-0.0551249098507767</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.0551249098507767</v>
+        <v>-0.0000956227187034475</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.0000956227187034475</v>
+        <v>0.0051965398307845</v>
       </c>
       <c r="I59" t="n">
-        <v>0.00519643292589378</v>
-      </c>
-      <c r="J59" t="n">
         <v>0.0147006171898481</v>
       </c>
     </row>
@@ -4568,21 +4175,18 @@
         <v>-0.0895522271213881</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.00729444081478248</v>
+        <v>-0.00729458046001019</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.0102911555000778</v>
+        <v>-0.0132850297599628</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.0132850297599628</v>
+        <v>-0.000496903574826124</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.000496903574826124</v>
+        <v>0.00217896925047767</v>
       </c>
       <c r="I60" t="n">
-        <v>0.00217896925047767</v>
-      </c>
-      <c r="J60" t="n">
         <v>0.00863753163675529</v>
       </c>
     </row>
@@ -4600,21 +4204,18 @@
         <v>0.0223154331896849</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0251656707241463</v>
+        <v>0.0251657425659209</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0106151891470962</v>
+        <v>0.0199370184247143</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0199370184247143</v>
+        <v>-0.000525278202900048</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.000525278202900048</v>
+        <v>0.00138871797534712</v>
       </c>
       <c r="I61" t="n">
-        <v>0.00138871797534712</v>
-      </c>
-      <c r="J61" t="n">
         <v>0.0595637419877391</v>
       </c>
     </row>
@@ -4635,18 +4236,15 @@
         <v>-0.0081719153346077</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.000624840459710785</v>
+        <v>-0.0025029718667906</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.0025029718667906</v>
+        <v>-0.000629951327503542</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.000629951327503542</v>
+        <v>0.00158939853660578</v>
       </c>
       <c r="I62" t="n">
-        <v>0.00158939853660578</v>
-      </c>
-      <c r="J62" t="n">
         <v>0.0166704960543897</v>
       </c>
     </row>
@@ -4664,21 +4262,18 @@
         <v>0.0117005129309908</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.0114762226323375</v>
+        <v>-0.0114762922609374</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.00299420886376622</v>
+        <v>-0.00736319130856267</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.00736319130856267</v>
+        <v>-0.000543729901243628</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.000543729901243628</v>
+        <v>0.000894951071311656</v>
       </c>
       <c r="I63" t="n">
-        <v>0.000894735772233091</v>
-      </c>
-      <c r="J63" t="n">
         <v>-0.0200592612826171</v>
       </c>
     </row>
@@ -4696,21 +4291,18 @@
         <v>0.00411198523061551</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.0101426076955278</v>
+        <v>-0.0101425379729873</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.00177926569694176</v>
+        <v>-0.00364568181337444</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.00364568181337444</v>
+        <v>-0.000581527585319264</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.000581527585319264</v>
+        <v>0.00259195973808879</v>
       </c>
       <c r="I64" t="n">
-        <v>0.00259206729066208</v>
-      </c>
-      <c r="J64" t="n">
         <v>0.00673146876441866</v>
       </c>
     </row>
@@ -4728,21 +4320,18 @@
         <v>0.011687800276112</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.00453045071717217</v>
+        <v>-0.00453038162494479</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.00857649836563412</v>
+        <v>-0.00537206634792931</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.00537206634792931</v>
+        <v>-0.000524081962376854</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.000524081962376854</v>
+        <v>0.00135512650294878</v>
       </c>
       <c r="I65" t="n">
-        <v>0.00135545073028909</v>
-      </c>
-      <c r="J65" t="n">
         <v>-0.0321315714913825</v>
       </c>
     </row>
@@ -4760,21 +4349,18 @@
         <v>0.0105094123098455</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0204296448060339</v>
+        <v>0.0204295739814144</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00594823375479958</v>
+        <v>0.0133369733662008</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0133369733662008</v>
+        <v>-0.000504780079156109</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.000504780079156109</v>
+        <v>0.00227378048635307</v>
       </c>
       <c r="I66" t="n">
-        <v>0.00227334709938831</v>
-      </c>
-      <c r="J66" t="n">
         <v>0.0839419521919034</v>
       </c>
     </row>
@@ -4792,21 +4378,18 @@
         <v>0.0126697745145135</v>
       </c>
       <c r="E67" t="n">
-        <v>0.016060428008942</v>
+        <v>0.0160605742446336</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0145857687761486</v>
+        <v>0.0286994696344107</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0286994696344107</v>
+        <v>-0.000533051789031513</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.000533051789031513</v>
+        <v>0.00158408689649914</v>
       </c>
       <c r="I67" t="n">
-        <v>0.00158419511994201</v>
-      </c>
-      <c r="J67" t="n">
         <v>0.0341078888825856</v>
       </c>
     </row>
@@ -4824,21 +4407,18 @@
         <v>0.045127140544194</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0201726324521847</v>
+        <v>0.0201724856246686</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0162628734135206</v>
+        <v>0.0222784003326331</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0222784003326331</v>
+        <v>-0.000371110284001719</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.000371110284001719</v>
+        <v>0.00278002175669201</v>
       </c>
       <c r="I68" t="n">
-        <v>0.00278013045319492</v>
-      </c>
-      <c r="J68" t="n">
         <v>0.0627976972928299</v>
       </c>
     </row>
@@ -4856,21 +4436,18 @@
         <v>-0.00736064100392886</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0117270066753627</v>
+        <v>0.0117270818210697</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.00247004491682412</v>
+        <v>-0.0000477496798733101</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.0000477496798733101</v>
+        <v>-0.000504069561744647</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.000504069561744647</v>
+        <v>0.0022887224205026</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0022887224205026</v>
-      </c>
-      <c r="J69" t="n">
         <v>0.0179565456035116</v>
       </c>
     </row>
@@ -4888,21 +4465,18 @@
         <v>0.00998295216071643</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.000551630695609151</v>
+        <v>-0.000551704929318775</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0055522691238199</v>
+        <v>0.00488952720136426</v>
       </c>
       <c r="G70" t="n">
-        <v>0.00488952720136426</v>
+        <v>-0.000513238723451881</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.000513238723451881</v>
+        <v>0.00189432700635761</v>
       </c>
       <c r="I70" t="n">
-        <v>0.00189432700635761</v>
-      </c>
-      <c r="J70" t="n">
         <v>-0.00748533200987156</v>
       </c>
     </row>
